--- a/Modello/nuovi modelli/inputTesiModificati/test2/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiModificati/test2/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19246" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9330" uniqueCount="819">
   <si>
     <t>ANSPs</t>
   </si>
@@ -2738,1194 +2738,6 @@
   </si>
   <si>
     <t>2.10194</t>
-  </si>
-  <si>
-    <t>0.0241057</t>
-  </si>
-  <si>
-    <t>1.57214e-012</t>
-  </si>
-  <si>
-    <t>6.68948e-012</t>
-  </si>
-  <si>
-    <t>0.000311911</t>
-  </si>
-  <si>
-    <t>9.35732e-010</t>
-  </si>
-  <si>
-    <t>0.743555</t>
-  </si>
-  <si>
-    <t>0.0235987</t>
-  </si>
-  <si>
-    <t>0.232846</t>
-  </si>
-  <si>
-    <t>19.57</t>
-  </si>
-  <si>
-    <t>56.392</t>
-  </si>
-  <si>
-    <t>5338.72</t>
-  </si>
-  <si>
-    <t>5414.68</t>
-  </si>
-  <si>
-    <t>0.00451186</t>
-  </si>
-  <si>
-    <t>0.00159052</t>
-  </si>
-  <si>
-    <t>2.06858e-005</t>
-  </si>
-  <si>
-    <t>6.80445e-005</t>
-  </si>
-  <si>
-    <t>0.0608791</t>
-  </si>
-  <si>
-    <t>9.88341e-012</t>
-  </si>
-  <si>
-    <t>2.62175e-011</t>
-  </si>
-  <si>
-    <t>0.000496533</t>
-  </si>
-  <si>
-    <t>0.607234</t>
-  </si>
-  <si>
-    <t>0.0531092</t>
-  </si>
-  <si>
-    <t>0.339657</t>
-  </si>
-  <si>
-    <t>46.4385</t>
-  </si>
-  <si>
-    <t>71.4163</t>
-  </si>
-  <si>
-    <t>5282.51</t>
-  </si>
-  <si>
-    <t>5400.37</t>
-  </si>
-  <si>
-    <t>0.00272238</t>
-  </si>
-  <si>
-    <t>9.39907e-006</t>
-  </si>
-  <si>
-    <t>2.31606e-005</t>
-  </si>
-  <si>
-    <t>4.24626e-005</t>
-  </si>
-  <si>
-    <t>0.499492</t>
-  </si>
-  <si>
-    <t>0.0914509</t>
-  </si>
-  <si>
-    <t>0.409057</t>
-  </si>
-  <si>
-    <t>1.34822</t>
-  </si>
-  <si>
-    <t>474.727</t>
-  </si>
-  <si>
-    <t>5583.52</t>
-  </si>
-  <si>
-    <t>6059.6</t>
-  </si>
-  <si>
-    <t>0.00261898</t>
-  </si>
-  <si>
-    <t>1.06385e-005</t>
-  </si>
-  <si>
-    <t>1.17446e-005</t>
-  </si>
-  <si>
-    <t>3.47773e-005</t>
-  </si>
-  <si>
-    <t>0.851318</t>
-  </si>
-  <si>
-    <t>0.047311</t>
-  </si>
-  <si>
-    <t>0.101371</t>
-  </si>
-  <si>
-    <t>47.4816</t>
-  </si>
-  <si>
-    <t>116.991</t>
-  </si>
-  <si>
-    <t>6021.88</t>
-  </si>
-  <si>
-    <t>6186.35</t>
-  </si>
-  <si>
-    <t>0.00327832</t>
-  </si>
-  <si>
-    <t>9.33667e-006</t>
-  </si>
-  <si>
-    <t>2.55973e-005</t>
-  </si>
-  <si>
-    <t>5.25759e-005</t>
-  </si>
-  <si>
-    <t>0.731688</t>
-  </si>
-  <si>
-    <t>0.0104301</t>
-  </si>
-  <si>
-    <t>0.257882</t>
-  </si>
-  <si>
-    <t>86.946</t>
-  </si>
-  <si>
-    <t>57.9878</t>
-  </si>
-  <si>
-    <t>5172.15</t>
-  </si>
-  <si>
-    <t>5317.09</t>
-  </si>
-  <si>
-    <t>0.00637105</t>
-  </si>
-  <si>
-    <t>1.05895e-013</t>
-  </si>
-  <si>
-    <t>3.02032e-013</t>
-  </si>
-  <si>
-    <t>7.236e-005</t>
-  </si>
-  <si>
-    <t>2.1708e-010</t>
-  </si>
-  <si>
-    <t>0.867202</t>
-  </si>
-  <si>
-    <t>0.0298304</t>
-  </si>
-  <si>
-    <t>0.102968</t>
-  </si>
-  <si>
-    <t>48.8371</t>
-  </si>
-  <si>
-    <t>51.3074</t>
-  </si>
-  <si>
-    <t>4259.49</t>
-  </si>
-  <si>
-    <t>4359.63</t>
-  </si>
-  <si>
-    <t>0.00590221</t>
-  </si>
-  <si>
-    <t>0.000163059</t>
-  </si>
-  <si>
-    <t>0.00037179</t>
-  </si>
-  <si>
-    <t>5.21063e-005</t>
-  </si>
-  <si>
-    <t>0.0128956</t>
-  </si>
-  <si>
-    <t>0.00109531</t>
-  </si>
-  <si>
-    <t>0.00205705</t>
-  </si>
-  <si>
-    <t>5.73723e-005</t>
-  </si>
-  <si>
-    <t>0.000478541</t>
-  </si>
-  <si>
-    <t>1.53071e-005</t>
-  </si>
-  <si>
-    <t>2.25588e-005</t>
-  </si>
-  <si>
-    <t>5.92748e-006</t>
-  </si>
-  <si>
-    <t>0.00131114</t>
-  </si>
-  <si>
-    <t>1.19411e-005</t>
-  </si>
-  <si>
-    <t>9.77774e-006</t>
-  </si>
-  <si>
-    <t>1.44598e-005</t>
-  </si>
-  <si>
-    <t>0.000412876</t>
-  </si>
-  <si>
-    <t>2.31878e-005</t>
-  </si>
-  <si>
-    <t>2.49935e-005</t>
-  </si>
-  <si>
-    <t>3.504e-006</t>
-  </si>
-  <si>
-    <t>4.58484</t>
-  </si>
-  <si>
-    <t>0.103725</t>
-  </si>
-  <si>
-    <t>0.708144</t>
-  </si>
-  <si>
-    <t>0.00555556</t>
-  </si>
-  <si>
-    <t>0.372033</t>
-  </si>
-  <si>
-    <t>0.627967</t>
-  </si>
-  <si>
-    <t>0.727403</t>
-  </si>
-  <si>
-    <t>218.589</t>
-  </si>
-  <si>
-    <t>108.973</t>
-  </si>
-  <si>
-    <t>9016.14</t>
-  </si>
-  <si>
-    <t>9344.42</t>
-  </si>
-  <si>
-    <t>0.000644636</t>
-  </si>
-  <si>
-    <t>2.0155e-005</t>
-  </si>
-  <si>
-    <t>2.10621e-005</t>
-  </si>
-  <si>
-    <t>6.81904e-006</t>
-  </si>
-  <si>
-    <t>0.507418</t>
-  </si>
-  <si>
-    <t>0.492582</t>
-  </si>
-  <si>
-    <t>87.5627</t>
-  </si>
-  <si>
-    <t>5.44325</t>
-  </si>
-  <si>
-    <t>52.6093</t>
-  </si>
-  <si>
-    <t>11923.4</t>
-  </si>
-  <si>
-    <t>12069</t>
-  </si>
-  <si>
-    <t>0.000710467</t>
-  </si>
-  <si>
-    <t>1.89878e-006</t>
-  </si>
-  <si>
-    <t>2.21376e-006</t>
-  </si>
-  <si>
-    <t>9.81421e-006</t>
-  </si>
-  <si>
-    <t>0.976334</t>
-  </si>
-  <si>
-    <t>0.0236657</t>
-  </si>
-  <si>
-    <t>33.1973</t>
-  </si>
-  <si>
-    <t>135.203</t>
-  </si>
-  <si>
-    <t>49.7452</t>
-  </si>
-  <si>
-    <t>5838.13</t>
-  </si>
-  <si>
-    <t>6056.27</t>
-  </si>
-  <si>
-    <t>0.0075171</t>
-  </si>
-  <si>
-    <t>9.97246e-005</t>
-  </si>
-  <si>
-    <t>0.00013375</t>
-  </si>
-  <si>
-    <t>8.16542e-005</t>
-  </si>
-  <si>
-    <t>0.647034</t>
-  </si>
-  <si>
-    <t>0.274475</t>
-  </si>
-  <si>
-    <t>0.00909343</t>
-  </si>
-  <si>
-    <t>0.0693973</t>
-  </si>
-  <si>
-    <t>89.0462</t>
-  </si>
-  <si>
-    <t>1655.47</t>
-  </si>
-  <si>
-    <t>1744.51</t>
-  </si>
-  <si>
-    <t>0.00331442</t>
-  </si>
-  <si>
-    <t>0.000111825</t>
-  </si>
-  <si>
-    <t>0.000129862</t>
-  </si>
-  <si>
-    <t>2.75609e-005</t>
-  </si>
-  <si>
-    <t>0.709644</t>
-  </si>
-  <si>
-    <t>0.013586</t>
-  </si>
-  <si>
-    <t>0.27677</t>
-  </si>
-  <si>
-    <t>4.10871</t>
-  </si>
-  <si>
-    <t>76.3018</t>
-  </si>
-  <si>
-    <t>5146.58</t>
-  </si>
-  <si>
-    <t>5226.99</t>
-  </si>
-  <si>
-    <t>0.00566245</t>
-  </si>
-  <si>
-    <t>0.00233602</t>
-  </si>
-  <si>
-    <t>4.27394e-006</t>
-  </si>
-  <si>
-    <t>0.000101342</t>
-  </si>
-  <si>
-    <t>0.716607</t>
-  </si>
-  <si>
-    <t>0.0264211</t>
-  </si>
-  <si>
-    <t>0.256971</t>
-  </si>
-  <si>
-    <t>11.6626</t>
-  </si>
-  <si>
-    <t>185.763</t>
-  </si>
-  <si>
-    <t>5383.09</t>
-  </si>
-  <si>
-    <t>5580.51</t>
-  </si>
-  <si>
-    <t>0.00459597</t>
-  </si>
-  <si>
-    <t>1.24688e-013</t>
-  </si>
-  <si>
-    <t>1.98784e-013</t>
-  </si>
-  <si>
-    <t>6.69507e-005</t>
-  </si>
-  <si>
-    <t>0.764995</t>
-  </si>
-  <si>
-    <t>0.111271</t>
-  </si>
-  <si>
-    <t>0.09024</t>
-  </si>
-  <si>
-    <t>0.0334942</t>
-  </si>
-  <si>
-    <t>19.5633</t>
-  </si>
-  <si>
-    <t>6111.46</t>
-  </si>
-  <si>
-    <t>6131.02</t>
-  </si>
-  <si>
-    <t>0.00268465</t>
-  </si>
-  <si>
-    <t>1.14779e-005</t>
-  </si>
-  <si>
-    <t>1.4261e-005</t>
-  </si>
-  <si>
-    <t>3.26639e-005</t>
-  </si>
-  <si>
-    <t>0.141086</t>
-  </si>
-  <si>
-    <t>0.639103</t>
-  </si>
-  <si>
-    <t>0.191146</t>
-  </si>
-  <si>
-    <t>0.0286652</t>
-  </si>
-  <si>
-    <t>27.5265</t>
-  </si>
-  <si>
-    <t>940.517</t>
-  </si>
-  <si>
-    <t>968.043</t>
-  </si>
-  <si>
-    <t>0.0227511</t>
-  </si>
-  <si>
-    <t>9.6192e-013</t>
-  </si>
-  <si>
-    <t>2.49133e-012</t>
-  </si>
-  <si>
-    <t>0.00023141</t>
-  </si>
-  <si>
-    <t>6.9423e-010</t>
-  </si>
-  <si>
-    <t>0.00845366</t>
-  </si>
-  <si>
-    <t>0.00453636</t>
-  </si>
-  <si>
-    <t>0.00127123</t>
-  </si>
-  <si>
-    <t>0.000207673</t>
-  </si>
-  <si>
-    <t>0.823596</t>
-  </si>
-  <si>
-    <t>0.0238244</t>
-  </si>
-  <si>
-    <t>0.152579</t>
-  </si>
-  <si>
-    <t>88.9158</t>
-  </si>
-  <si>
-    <t>5.61822</t>
-  </si>
-  <si>
-    <t>4962.46</t>
-  </si>
-  <si>
-    <t>5056.99</t>
-  </si>
-  <si>
-    <t>0.00290907</t>
-  </si>
-  <si>
-    <t>6.6375e-005</t>
-  </si>
-  <si>
-    <t>0.000131791</t>
-  </si>
-  <si>
-    <t>5.38401e-005</t>
-  </si>
-  <si>
-    <t>0.0351519</t>
-  </si>
-  <si>
-    <t>3.64691e-012</t>
-  </si>
-  <si>
-    <t>4.77082e-012</t>
-  </si>
-  <si>
-    <t>0.000371642</t>
-  </si>
-  <si>
-    <t>1.11493e-009</t>
-  </si>
-  <si>
-    <t>13.3015</t>
-  </si>
-  <si>
-    <t>1.05413</t>
-  </si>
-  <si>
-    <t>0.0119235</t>
-  </si>
-  <si>
-    <t>0.0333333</t>
-  </si>
-  <si>
-    <t>0.0520021</t>
-  </si>
-  <si>
-    <t>7.96511e-012</t>
-  </si>
-  <si>
-    <t>2.454e-011</t>
-  </si>
-  <si>
-    <t>0.00044842</t>
-  </si>
-  <si>
-    <t>0.00344033</t>
-  </si>
-  <si>
-    <t>0.0165991</t>
-  </si>
-  <si>
-    <t>0.00256219</t>
-  </si>
-  <si>
-    <t>0.000567529</t>
-  </si>
-  <si>
-    <t>0.000118624</t>
-  </si>
-  <si>
-    <t>-2.27374e-013</t>
-  </si>
-  <si>
-    <t>0.000642764</t>
-  </si>
-  <si>
-    <t>5.27748e-006</t>
-  </si>
-  <si>
-    <t>6.56189e-006</t>
-  </si>
-  <si>
-    <t>9.06045e-006</t>
-  </si>
-  <si>
-    <t>0.536112</t>
-  </si>
-  <si>
-    <t>0.0197185</t>
-  </si>
-  <si>
-    <t>0.444169</t>
-  </si>
-  <si>
-    <t>3.04447</t>
-  </si>
-  <si>
-    <t>482.332</t>
-  </si>
-  <si>
-    <t>2334.23</t>
-  </si>
-  <si>
-    <t>2819.6</t>
-  </si>
-  <si>
-    <t>0.00445379</t>
-  </si>
-  <si>
-    <t>0.00022195</t>
-  </si>
-  <si>
-    <t>0.000266035</t>
-  </si>
-  <si>
-    <t>4.43178e-005</t>
-  </si>
-  <si>
-    <t>0.78859</t>
-  </si>
-  <si>
-    <t>0.0332233</t>
-  </si>
-  <si>
-    <t>0.178187</t>
-  </si>
-  <si>
-    <t>11.7252</t>
-  </si>
-  <si>
-    <t>21.7469</t>
-  </si>
-  <si>
-    <t>5708.01</t>
-  </si>
-  <si>
-    <t>5741.48</t>
-  </si>
-  <si>
-    <t>0.00461118</t>
-  </si>
-  <si>
-    <t>1.0494e-013</t>
-  </si>
-  <si>
-    <t>2.22366e-013</t>
-  </si>
-  <si>
-    <t>6.63546e-005</t>
-  </si>
-  <si>
-    <t>0.48432</t>
-  </si>
-  <si>
-    <t>0.514918</t>
-  </si>
-  <si>
-    <t>0.000761843</t>
-  </si>
-  <si>
-    <t>11.6746</t>
-  </si>
-  <si>
-    <t>27.1296</t>
-  </si>
-  <si>
-    <t>2821.19</t>
-  </si>
-  <si>
-    <t>2859.99</t>
-  </si>
-  <si>
-    <t>0.0201054</t>
-  </si>
-  <si>
-    <t>9.7859e-013</t>
-  </si>
-  <si>
-    <t>3.31212e-012</t>
-  </si>
-  <si>
-    <t>0.000219242</t>
-  </si>
-  <si>
-    <t>6.57727e-010</t>
-  </si>
-  <si>
-    <t>0.766088</t>
-  </si>
-  <si>
-    <t>0.0685598</t>
-  </si>
-  <si>
-    <t>0.082089</t>
-  </si>
-  <si>
-    <t>0.0832634</t>
-  </si>
-  <si>
-    <t>85.6431</t>
-  </si>
-  <si>
-    <t>830.608</t>
-  </si>
-  <si>
-    <t>916.251</t>
-  </si>
-  <si>
-    <t>0.00298755</t>
-  </si>
-  <si>
-    <t>0.000162573</t>
-  </si>
-  <si>
-    <t>0.000227641</t>
-  </si>
-  <si>
-    <t>2.05238e-005</t>
-  </si>
-  <si>
-    <t>0.874806</t>
-  </si>
-  <si>
-    <t>0.104557</t>
-  </si>
-  <si>
-    <t>0.0206374</t>
-  </si>
-  <si>
-    <t>76.3597</t>
-  </si>
-  <si>
-    <t>64.2548</t>
-  </si>
-  <si>
-    <t>7109.41</t>
-  </si>
-  <si>
-    <t>7250.03</t>
-  </si>
-  <si>
-    <t>0.00305739</t>
-  </si>
-  <si>
-    <t>0.00111607</t>
-  </si>
-  <si>
-    <t>1.00983e-013</t>
-  </si>
-  <si>
-    <t>3.69237e-005</t>
-  </si>
-  <si>
-    <t>1.10771e-010</t>
-  </si>
-  <si>
-    <t>1.67241</t>
-  </si>
-  <si>
-    <t>0.193214</t>
-  </si>
-  <si>
-    <t>0.317168</t>
-  </si>
-  <si>
-    <t>0.429207</t>
-  </si>
-  <si>
-    <t>0.0684629</t>
-  </si>
-  <si>
-    <t>0.50233</t>
-  </si>
-  <si>
-    <t>119.661</t>
-  </si>
-  <si>
-    <t>94.4571</t>
-  </si>
-  <si>
-    <t>3994.4</t>
-  </si>
-  <si>
-    <t>4208.51</t>
-  </si>
-  <si>
-    <t>0.32089</t>
-  </si>
-  <si>
-    <t>0.67911</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.0495745</t>
-  </si>
-  <si>
-    <t>0.933693</t>
-  </si>
-  <si>
-    <t>0.0167325</t>
-  </si>
-  <si>
-    <t>1.48928</t>
-  </si>
-  <si>
-    <t>0.767641</t>
-  </si>
-  <si>
-    <t>0.568309</t>
-  </si>
-  <si>
-    <t>1.35075</t>
-  </si>
-  <si>
-    <t>1.75961</t>
-  </si>
-  <si>
-    <t>0.00171105</t>
-  </si>
-  <si>
-    <t>0.00138122</t>
-  </si>
-  <si>
-    <t>2.90936e-005</t>
-  </si>
-  <si>
-    <t>7.51698e-005</t>
-  </si>
-  <si>
-    <t>2.8243e-005</t>
-  </si>
-  <si>
-    <t>0.101675</t>
-  </si>
-  <si>
-    <t>0.511761</t>
-  </si>
-  <si>
-    <t>0.378873</t>
-  </si>
-  <si>
-    <t>0.568901</t>
-  </si>
-  <si>
-    <t>0.406498</t>
-  </si>
-  <si>
-    <t>0.0246007</t>
-  </si>
-  <si>
-    <t>9.05914</t>
-  </si>
-  <si>
-    <t>60.8481</t>
-  </si>
-  <si>
-    <t>3368.51</t>
-  </si>
-  <si>
-    <t>3438.41</t>
-  </si>
-  <si>
-    <t>0.684982</t>
-  </si>
-  <si>
-    <t>0.251308</t>
-  </si>
-  <si>
-    <t>0.0637104</t>
-  </si>
-  <si>
-    <t>0.758554</t>
-  </si>
-  <si>
-    <t>0.126231</t>
-  </si>
-  <si>
-    <t>0.737607</t>
-  </si>
-  <si>
-    <t>0.136163</t>
-  </si>
-  <si>
-    <t>1.31351</t>
-  </si>
-  <si>
-    <t>1.16199</t>
-  </si>
-  <si>
-    <t>0.0313476</t>
-  </si>
-  <si>
-    <t>0.756315</t>
-  </si>
-  <si>
-    <t>1.53638</t>
-  </si>
-  <si>
-    <t>0.0414478</t>
-  </si>
-  <si>
-    <t>1.3222</t>
-  </si>
-  <si>
-    <t>0.0941071</t>
-  </si>
-  <si>
-    <t>0.00549451</t>
-  </si>
-  <si>
-    <t>0.00861776</t>
-  </si>
-  <si>
-    <t>4.49157e-005</t>
-  </si>
-  <si>
-    <t>0.000256702</t>
-  </si>
-  <si>
-    <t>0.00770106</t>
-  </si>
-  <si>
-    <t>0.77466</t>
-  </si>
-  <si>
-    <t>0.0208984</t>
-  </si>
-  <si>
-    <t>0.50421</t>
-  </si>
-  <si>
-    <t>0.835741</t>
-  </si>
-  <si>
-    <t>0.0193503</t>
-  </si>
-  <si>
-    <t>0.144908</t>
-  </si>
-  <si>
-    <t>112.458</t>
-  </si>
-  <si>
-    <t>42.3754</t>
-  </si>
-  <si>
-    <t>5607.22</t>
-  </si>
-  <si>
-    <t>5762.05</t>
-  </si>
-  <si>
-    <t>0.00505311</t>
-  </si>
-  <si>
-    <t>0.712055</t>
-  </si>
-  <si>
-    <t>0.282892</t>
-  </si>
-  <si>
-    <t>0.691427</t>
-  </si>
-  <si>
-    <t>0.0240635</t>
-  </si>
-  <si>
-    <t>0.565294</t>
-  </si>
-  <si>
-    <t>0.410642</t>
-  </si>
-  <si>
-    <t>1.40252</t>
-  </si>
-  <si>
-    <t>2.71878</t>
-  </si>
-  <si>
-    <t>0.330104</t>
-  </si>
-  <si>
-    <t>0.620951</t>
-  </si>
-  <si>
-    <t>4.3784</t>
-  </si>
-  <si>
-    <t>0.531609</t>
-  </si>
-  <si>
-    <t>1.61043</t>
-  </si>
-  <si>
-    <t>0.00650212</t>
-  </si>
-  <si>
-    <t>0.00180505</t>
-  </si>
-  <si>
-    <t>2.53125e-006</t>
-  </si>
-  <si>
-    <t>6.09025e-006</t>
-  </si>
-  <si>
-    <t>6.98079e-005</t>
-  </si>
-  <si>
-    <t>0.00418848</t>
-  </si>
-  <si>
-    <t>1.81252</t>
-  </si>
-  <si>
-    <t>0.220069</t>
-  </si>
-  <si>
-    <t>0.413968</t>
-  </si>
-  <si>
-    <t>0.90009</t>
-  </si>
-  <si>
-    <t>0.09991</t>
-  </si>
-  <si>
-    <t>486.643</t>
-  </si>
-  <si>
-    <t>237.938</t>
-  </si>
-  <si>
-    <t>118.271</t>
-  </si>
-  <si>
-    <t>7110.83</t>
-  </si>
-  <si>
-    <t>7953.68</t>
-  </si>
-  <si>
-    <t>0.134143</t>
-  </si>
-  <si>
-    <t>0.823573</t>
-  </si>
-  <si>
-    <t>0.0422835</t>
-  </si>
-  <si>
-    <t>0.442709</t>
-  </si>
-  <si>
-    <t>0.338942</t>
-  </si>
-  <si>
-    <t>0.529608</t>
-  </si>
-  <si>
-    <t>0.131449</t>
-  </si>
-  <si>
-    <t>2.16153</t>
-  </si>
-  <si>
-    <t>3.73991</t>
-  </si>
-  <si>
-    <t>0.341239</t>
-  </si>
-  <si>
-    <t>-1.38198e-009</t>
-  </si>
-  <si>
-    <t>10.9598</t>
-  </si>
-  <si>
-    <t>2.9305</t>
-  </si>
-  <si>
-    <t>0.00320735</t>
-  </si>
-  <si>
-    <t>0.000593824</t>
-  </si>
-  <si>
-    <t>1.0364e-013</t>
-  </si>
-  <si>
-    <t>3.0194e-005</t>
-  </si>
-  <si>
-    <t>9.05821e-011</t>
-  </si>
-  <si>
-    <t>2.49327</t>
-  </si>
-  <si>
-    <t>0.227493</t>
   </si>
 </sst>
 </file>
@@ -4470,7 +3282,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>90</v>
@@ -4482,7 +3294,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>90</v>
@@ -4521,7 +3333,7 @@
         <v>90</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>90</v>
+        <v>511</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>90</v>
@@ -4533,7 +3345,7 @@
         <v>90</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>90</v>
+        <v>609</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>90</v>
@@ -4565,18 +3377,10 @@
       <c r="AH2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -4681,18 +3485,10 @@
       <c r="AH3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -4797,18 +3593,10 @@
       <c r="AH4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -4913,18 +3701,10 @@
       <c r="AH5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -5029,18 +3809,10 @@
       <c r="AH6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -5145,18 +3917,10 @@
       <c r="AH7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -5261,18 +4025,10 @@
       <c r="AH8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -5377,18 +4133,10 @@
       <c r="AH9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -5398,25 +4146,25 @@
         <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>824</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>839</v>
+        <v>90</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>850</v>
+        <v>90</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>861</v>
+        <v>90</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>872</v>
+        <v>90</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>884</v>
+        <v>259</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>89</v>
@@ -5434,34 +4182,34 @@
         <v>90</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>915</v>
+        <v>90</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>926</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>937</v>
+        <v>90</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>948</v>
+        <v>90</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>959</v>
+        <v>90</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>981</v>
+        <v>90</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>992</v>
+        <v>90</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>1008</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>90</v>
@@ -5479,32 +4227,24 @@
         <v>90</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>1042</v>
+        <v>674</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>1053</v>
+        <v>90</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>1064</v>
+        <v>90</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>1076</v>
+        <v>763</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AI10" s="8" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AJ10" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AL10" s="8" t="s">
-        <v>1188</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -5520,7 +4260,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>90</v>
@@ -5609,18 +4349,10 @@
       <c r="AH11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -5675,7 +4407,7 @@
         <v>90</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>949</v>
+        <v>90</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>90</v>
@@ -5684,7 +4416,7 @@
         <v>90</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>982</v>
+        <v>90</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>90</v>
@@ -5720,23 +4452,15 @@
         <v>90</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>1077</v>
+        <v>90</v>
       </c>
       <c r="AH12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -5746,25 +4470,25 @@
         <v>90</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>825</v>
+        <v>90</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>840</v>
+        <v>90</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>851</v>
+        <v>175</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>862</v>
+        <v>90</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>873</v>
+        <v>90</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>885</v>
+        <v>90</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>90</v>
@@ -5782,25 +4506,25 @@
         <v>90</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>916</v>
+        <v>355</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>927</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>938</v>
+        <v>90</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>950</v>
+        <v>448</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>960</v>
+        <v>90</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>971</v>
+        <v>90</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>983</v>
+        <v>537</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>90</v>
@@ -5809,7 +4533,7 @@
         <v>90</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>1009</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>90</v>
@@ -5827,32 +4551,24 @@
         <v>90</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>1043</v>
+        <v>90</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>1054</v>
+        <v>90</v>
       </c>
       <c r="AF13" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>1078</v>
+        <v>764</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AI13" s="8" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AJ13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="8" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AL13" s="8" t="s">
-        <v>1189</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -5877,10 +4593,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>90</v>
@@ -5904,22 +4620,22 @@
         <v>90</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>90</v>
+        <v>418</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>90</v>
+        <v>481</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="U14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>993</v>
+        <v>567</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>90</v>
@@ -5943,13 +4659,13 @@
         <v>90</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>90</v>
+        <v>675</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>90</v>
+        <v>707</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>90</v>
+        <v>734</v>
       </c>
       <c r="AG14" s="8" t="s">
         <v>90</v>
@@ -5957,18 +4673,10 @@
       <c r="AH14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL14" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -6073,18 +4781,10 @@
       <c r="AH15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -6189,18 +4889,10 @@
       <c r="AH16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -6305,18 +4997,10 @@
       <c r="AH17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -6421,18 +5105,10 @@
       <c r="AH18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -6537,18 +5213,10 @@
       <c r="AH19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -6653,18 +5321,10 @@
       <c r="AH20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -6769,18 +5429,10 @@
       <c r="AH21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -6885,18 +5537,10 @@
       <c r="AH22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -7001,18 +5645,10 @@
       <c r="AH23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -7117,18 +5753,10 @@
       <c r="AH24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -7233,18 +5861,10 @@
       <c r="AH25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL25" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -7311,7 +5931,7 @@
         <v>90</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>994</v>
+        <v>90</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>90</v>
@@ -7341,7 +5961,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>1065</v>
+        <v>90</v>
       </c>
       <c r="AG26" s="8" t="s">
         <v>90</v>
@@ -7349,18 +5969,10 @@
       <c r="AH26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AK26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -7465,18 +6077,10 @@
       <c r="AH27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -7486,25 +6090,25 @@
         <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>826</v>
+        <v>110</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>841</v>
+        <v>151</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>852</v>
+        <v>176</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>863</v>
+        <v>205</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>874</v>
+        <v>231</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>886</v>
+        <v>261</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>90</v>
@@ -7522,34 +6126,34 @@
         <v>90</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>90</v>
+        <v>356</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>90</v>
+        <v>388</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>90</v>
+        <v>419</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>951</v>
+        <v>449</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>961</v>
+        <v>482</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>972</v>
+        <v>513</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>984</v>
+        <v>538</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>995</v>
+        <v>568</v>
       </c>
       <c r="W28" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>1010</v>
+        <v>610</v>
       </c>
       <c r="Y28" s="8" t="s">
         <v>90</v>
@@ -7567,32 +6171,24 @@
         <v>90</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>1044</v>
+        <v>676</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>1055</v>
+        <v>708</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>1066</v>
+        <v>735</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>1079</v>
+        <v>765</v>
       </c>
       <c r="AH28" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AI28" s="8" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AJ28" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AK28" s="8" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AL28" s="8" t="s">
-        <v>90</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -7641,7 +6237,7 @@
         <v>90</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>90</v>
@@ -7697,18 +6293,10 @@
       <c r="AH29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -7813,18 +6401,10 @@
       <c r="AH30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -7929,18 +6509,10 @@
       <c r="AH31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -8045,18 +6617,10 @@
       <c r="AH32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -8161,18 +6725,10 @@
       <c r="AH33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -8277,18 +6833,10 @@
       <c r="AH34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -8393,18 +6941,10 @@
       <c r="AH35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -8509,18 +7049,10 @@
       <c r="AH36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -8625,18 +7157,10 @@
       <c r="AH37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -8741,18 +7265,10 @@
       <c r="AH38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -8762,19 +7278,19 @@
         <v>90</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>827</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>842</v>
+        <v>152</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>853</v>
+        <v>90</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>864</v>
+        <v>206</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>90</v>
@@ -8798,10 +7314,10 @@
         <v>90</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>917</v>
+        <v>90</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>928</v>
+        <v>90</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>90</v>
@@ -8810,10 +7326,10 @@
         <v>90</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>962</v>
+        <v>90</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>973</v>
+        <v>90</v>
       </c>
       <c r="U39" s="8" t="s">
         <v>90</v>
@@ -8825,7 +7341,7 @@
         <v>90</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>1011</v>
+        <v>611</v>
       </c>
       <c r="Y39" s="8" t="s">
         <v>90</v>
@@ -8843,10 +7359,10 @@
         <v>90</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>1045</v>
+        <v>90</v>
       </c>
       <c r="AE39" s="8" t="s">
-        <v>1056</v>
+        <v>90</v>
       </c>
       <c r="AF39" s="8" t="s">
         <v>90</v>
@@ -8857,18 +7373,10 @@
       <c r="AH39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI39" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AJ39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL39" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -8887,16 +7395,16 @@
         <v>90</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>875</v>
+        <v>232</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>887</v>
+        <v>262</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>90</v>
@@ -8914,28 +7422,28 @@
         <v>90</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>939</v>
+        <v>420</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>952</v>
+        <v>450</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>90</v>
+        <v>483</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>985</v>
+        <v>539</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>996</v>
+        <v>569</v>
       </c>
       <c r="W40" s="8" t="s">
         <v>90</v>
@@ -8959,32 +7467,24 @@
         <v>90</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>90</v>
+        <v>677</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>90</v>
+        <v>709</v>
       </c>
       <c r="AF40" s="8" t="s">
-        <v>1067</v>
+        <v>736</v>
       </c>
       <c r="AG40" s="8" t="s">
-        <v>1080</v>
+        <v>766</v>
       </c>
       <c r="AH40" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AI40" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ40" s="8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AK40" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AL40" s="8" t="s">
-        <v>1190</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -8994,31 +7494,31 @@
         <v>90</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>854</v>
+        <v>178</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>90</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>90</v>
@@ -9030,34 +7530,34 @@
         <v>90</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>918</v>
+        <v>358</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>929</v>
+        <v>390</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>940</v>
+        <v>421</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>90</v>
+        <v>451</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>90</v>
+        <v>484</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>974</v>
+        <v>514</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>90</v>
+        <v>540</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>90</v>
+        <v>570</v>
       </c>
       <c r="W41" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>1012</v>
+        <v>612</v>
       </c>
       <c r="Y41" s="8" t="s">
         <v>90</v>
@@ -9075,32 +7575,24 @@
         <v>90</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>1046</v>
+        <v>678</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>90</v>
+        <v>710</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>90</v>
+        <v>737</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>90</v>
+        <v>767</v>
       </c>
       <c r="AH41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL41" s="8" t="s">
-        <v>1191</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -9110,31 +7602,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>828</v>
+        <v>113</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>843</v>
+        <v>154</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>865</v>
+        <v>208</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>876</v>
+        <v>234</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>888</v>
+        <v>264</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>90</v>
@@ -9146,34 +7638,34 @@
         <v>90</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>919</v>
+        <v>359</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>930</v>
+        <v>391</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>941</v>
+        <v>422</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>90</v>
+        <v>452</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>963</v>
+        <v>485</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>90</v>
+        <v>541</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>90</v>
+        <v>571</v>
       </c>
       <c r="W42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>90</v>
+        <v>613</v>
       </c>
       <c r="Y42" s="8" t="s">
         <v>90</v>
@@ -9191,32 +7683,24 @@
         <v>90</v>
       </c>
       <c r="AD42" s="8" t="s">
-        <v>90</v>
+        <v>679</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>1057</v>
+        <v>711</v>
       </c>
       <c r="AF42" s="8" t="s">
-        <v>1068</v>
+        <v>738</v>
       </c>
       <c r="AG42" s="8" t="s">
-        <v>90</v>
+        <v>768</v>
       </c>
       <c r="AH42" s="8" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AI42" s="8" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AJ42" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AK42" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AL42" s="8" t="s">
-        <v>1192</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -9226,25 +7710,25 @@
         <v>90</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>829</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>844</v>
+        <v>155</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>855</v>
+        <v>180</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>866</v>
+        <v>209</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>877</v>
+        <v>235</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>889</v>
+        <v>90</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>90</v>
@@ -9262,34 +7746,34 @@
         <v>90</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>920</v>
+        <v>360</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>931</v>
+        <v>392</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>942</v>
+        <v>423</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>953</v>
+        <v>453</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>964</v>
+        <v>486</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>975</v>
+        <v>516</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>986</v>
+        <v>542</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>997</v>
+        <v>572</v>
       </c>
       <c r="W43" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>1013</v>
+        <v>614</v>
       </c>
       <c r="Y43" s="8" t="s">
         <v>90</v>
@@ -9307,32 +7791,24 @@
         <v>90</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>1047</v>
+        <v>90</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>1058</v>
+        <v>712</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>1069</v>
+        <v>739</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>1081</v>
+        <v>90</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AI43" s="8" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AJ43" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AK43" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AL43" s="8" t="s">
-        <v>1193</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -9342,31 +7818,31 @@
         <v>90</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>830</v>
+        <v>115</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>845</v>
+        <v>156</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>856</v>
+        <v>181</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>867</v>
+        <v>210</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>878</v>
+        <v>236</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>890</v>
+        <v>265</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>90</v>
+        <v>302</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>90</v>
@@ -9378,34 +7854,34 @@
         <v>90</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>921</v>
+        <v>361</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>932</v>
+        <v>393</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>943</v>
+        <v>424</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>954</v>
+        <v>454</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>965</v>
+        <v>487</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>976</v>
+        <v>517</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>987</v>
+        <v>543</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>998</v>
+        <v>573</v>
       </c>
       <c r="W44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>1014</v>
+        <v>615</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>90</v>
@@ -9423,32 +7899,24 @@
         <v>90</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>1048</v>
+        <v>680</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>1059</v>
+        <v>713</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>1070</v>
+        <v>740</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>1082</v>
+        <v>769</v>
       </c>
       <c r="AH44" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AI44" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AJ44" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AK44" s="9" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AL44" s="9" t="s">
-        <v>1194</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -9553,18 +8021,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9818,18 +8278,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -9934,18 +8386,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -10050,18 +8494,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -10166,18 +8602,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -10282,18 +8710,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -10398,18 +8818,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -10514,18 +8926,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -10630,18 +9034,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -10746,18 +9142,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -10862,18 +9250,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -10978,18 +9358,10 @@
       <c r="AH12" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>1195</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -11094,18 +9466,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -11210,18 +9574,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -11326,18 +9682,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -11442,18 +9790,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -11558,18 +9898,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -11674,18 +10006,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -11790,18 +10114,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -11906,18 +10222,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -12022,18 +10330,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -12138,18 +10438,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -12254,18 +10546,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -12370,18 +10654,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -12486,18 +10762,10 @@
       <c r="AH25" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>1196</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -12602,18 +10870,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -12718,18 +10978,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -12834,18 +11086,10 @@
       <c r="AH28" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>1197</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -12950,18 +11194,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -13066,18 +11302,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -13182,18 +11410,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -13298,18 +11518,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -13414,18 +11626,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -13530,18 +11734,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -13646,18 +11842,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -13762,18 +11950,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -13878,18 +12058,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -13994,18 +12166,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -14110,18 +12274,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -14226,18 +12382,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -14342,18 +12490,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -14458,18 +12598,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -14574,18 +12706,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -14690,18 +12814,10 @@
       <c r="AH44" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>1198</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -14806,18 +12922,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15090,18 +13198,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -15206,18 +13306,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -15322,18 +13414,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -15438,18 +13522,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -15554,18 +13630,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -15670,18 +13738,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -15786,18 +13846,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -15902,18 +13954,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -16018,18 +14062,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -16134,18 +14170,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -16250,18 +14278,10 @@
       <c r="AH12" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>1199</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -16366,18 +14386,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -16482,18 +14494,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -16598,18 +14602,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -16714,18 +14710,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -16830,18 +14818,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -16946,18 +14926,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -17062,18 +15034,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -17178,18 +15142,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -17294,18 +15250,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -17410,18 +15358,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -17526,18 +15466,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -17642,18 +15574,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -17758,18 +15682,10 @@
       <c r="AH25" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>1200</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -17874,18 +15790,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -17990,18 +15898,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -18106,18 +16006,10 @@
       <c r="AH28" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>1201</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -18222,18 +16114,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -18338,18 +16222,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -18454,18 +16330,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -18570,18 +16438,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -18686,18 +16546,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -18802,18 +16654,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -18918,18 +16762,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -19034,18 +16870,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -19150,18 +16978,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -19266,18 +17086,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -19317,7 +17129,7 @@
         <v>90</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>90</v>
@@ -19365,7 +17177,7 @@
         <v>90</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>95</v>
@@ -19382,18 +17194,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -19433,7 +17237,7 @@
         <v>90</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>90</v>
@@ -19481,7 +17285,7 @@
         <v>90</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>1037</v>
+        <v>90</v>
       </c>
       <c r="AD40" s="6" t="s">
         <v>95</v>
@@ -19498,18 +17302,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -19522,7 +17318,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>95</v>
@@ -19543,7 +17339,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>90</v>
@@ -19614,18 +17410,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -19638,7 +17426,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>95</v>
@@ -19659,7 +17447,7 @@
         <v>90</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>90</v>
@@ -19730,18 +17518,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -19775,7 +17555,7 @@
         <v>90</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>90</v>
@@ -19811,7 +17591,7 @@
         <v>95</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="X43" s="5" t="s">
         <v>95</v>
@@ -19846,18 +17626,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -19962,18 +17734,10 @@
       <c r="AH44" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>1202</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -20078,18 +17842,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20362,18 +18118,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -20478,18 +18226,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -20594,18 +18334,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -20710,18 +18442,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -20826,18 +18550,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -20942,18 +18658,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -21058,18 +18766,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -21174,18 +18874,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -21290,18 +18982,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -21406,18 +19090,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -21522,18 +19198,10 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -21638,18 +19306,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -21754,18 +19414,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -21870,18 +19522,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -21986,18 +19630,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -22102,18 +19738,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -22218,18 +19846,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -22334,18 +19954,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -22450,18 +20062,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -22566,18 +20170,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -22682,18 +20278,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -22798,18 +20386,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -22914,18 +20494,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -23030,18 +20602,10 @@
       <c r="AH25" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>1203</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -23146,18 +20710,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -23262,18 +20818,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -23378,18 +20926,10 @@
       <c r="AH28" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -23494,18 +21034,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -23610,18 +21142,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -23726,18 +21250,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -23842,18 +21358,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -23958,18 +21466,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -24074,18 +21574,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -24190,18 +21682,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -24306,18 +21790,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -24422,18 +21898,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -24538,18 +22006,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -24654,18 +22114,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -24770,18 +22222,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -24886,18 +22330,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -25002,18 +22438,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -25118,18 +22546,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -25234,18 +22654,10 @@
       <c r="AH44" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>1204</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -25350,18 +22762,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25634,18 +23038,10 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -25750,18 +23146,10 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -25866,18 +23254,10 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -25982,18 +23362,10 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -26098,18 +23470,10 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -26214,18 +23578,10 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -26330,18 +23686,10 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -26446,18 +23794,10 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -26562,18 +23902,10 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>1205</v>
-      </c>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -26678,18 +24010,10 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -26794,18 +24118,10 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -26910,18 +24226,10 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -27026,18 +24334,10 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -27142,18 +24442,10 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -27258,18 +24550,10 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -27374,18 +24658,10 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -27490,18 +24766,10 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -27606,18 +24874,10 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -27722,18 +24982,10 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -27838,18 +25090,10 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -27954,18 +25198,10 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -28070,18 +25306,10 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -28186,18 +25414,10 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -28302,18 +25522,10 @@
       <c r="AH25" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>1206</v>
-      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -28418,18 +25630,10 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -28534,18 +25738,10 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -28650,18 +25846,10 @@
       <c r="AH28" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="AI28" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -28766,18 +25954,10 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -28882,18 +26062,10 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -28998,18 +26170,10 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -29114,18 +26278,10 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -29230,18 +26386,10 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -29346,18 +26494,10 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -29462,18 +26602,10 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -29578,18 +26710,10 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -29694,18 +26818,10 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -29810,18 +26926,10 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -29926,18 +27034,10 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK39" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL39" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -30042,18 +27142,10 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -30158,18 +27250,10 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -30274,18 +27358,10 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -30390,18 +27466,10 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -30506,18 +27574,10 @@
       <c r="AH44" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="AI44" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AJ44" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>1207</v>
-      </c>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -30622,18 +27682,10 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30808,116 +27860,106 @@
         <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>819</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>831</v>
+        <v>127</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>835</v>
+        <v>143</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>846</v>
+        <v>167</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>857</v>
+        <v>195</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>868</v>
+        <v>222</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>879</v>
+        <v>251</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>891</v>
+        <v>284</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>895</v>
+        <v>295</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>899</v>
+        <v>308</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>903</v>
+        <v>322</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>907</v>
+        <v>340</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>911</v>
+        <v>350</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>922</v>
+        <v>378</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>933</v>
+        <v>409</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>944</v>
+        <v>439</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>955</v>
+        <v>471</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>966</v>
+        <v>502</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>977</v>
+        <v>530</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>988</v>
+        <v>558</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>999</v>
+        <v>588</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>1004</v>
+        <v>601</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>1015</v>
+        <v>626</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>1019</v>
+        <v>634</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>1024</v>
+        <v>639</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>1028</v>
+        <v>650</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>1032</v>
+        <v>657</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>1038</v>
+        <v>666</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>1049</v>
+        <v>697</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>1060</v>
+        <v>727</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>1071</v>
+        <v>755</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>1208</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -31002,7 +28044,7 @@
         <v>651</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>1033</v>
+        <v>658</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>667</v>
@@ -31019,376 +28061,336 @@
       <c r="AG3" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="AH3" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>1209</v>
-      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>820</v>
+        <v>102</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>832</v>
+        <v>129</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>836</v>
+        <v>90</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>847</v>
+        <v>169</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>858</v>
+        <v>197</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>869</v>
+        <v>224</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>880</v>
+        <v>253</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>892</v>
+        <v>286</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>896</v>
+        <v>297</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>900</v>
+        <v>310</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>904</v>
+        <v>324</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>908</v>
+        <v>342</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>912</v>
+        <v>352</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>923</v>
+        <v>380</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>934</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>945</v>
+        <v>441</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>956</v>
+        <v>473</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>967</v>
+        <v>504</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>978</v>
+        <v>90</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>989</v>
+        <v>560</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1005</v>
+        <v>603</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>1016</v>
+        <v>628</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>1020</v>
+        <v>636</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>1025</v>
+        <v>641</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>1029</v>
+        <v>90</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>1034</v>
+        <v>659</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>1039</v>
+        <v>668</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>1050</v>
+        <v>699</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>1061</v>
+        <v>90</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>1072</v>
+        <v>757</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>821</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>833</v>
+        <v>130</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>837</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>848</v>
+        <v>170</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>859</v>
+        <v>198</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>870</v>
+        <v>225</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>881</v>
+        <v>90</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>893</v>
+        <v>287</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>897</v>
+        <v>298</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>901</v>
+        <v>311</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>905</v>
+        <v>325</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>909</v>
+        <v>343</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>913</v>
+        <v>353</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>924</v>
+        <v>381</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>935</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>946</v>
+        <v>442</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>957</v>
+        <v>474</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>968</v>
+        <v>505</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>979</v>
+        <v>90</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>990</v>
+        <v>561</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>1001</v>
+        <v>591</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1006</v>
+        <v>604</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>1017</v>
+        <v>629</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>1021</v>
+        <v>637</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>1026</v>
+        <v>642</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1030</v>
+        <v>90</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1035</v>
+        <v>660</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>1040</v>
+        <v>669</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>1051</v>
+        <v>700</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>1062</v>
+        <v>90</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>1073</v>
+        <v>90</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AH5" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>1210</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>822</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>834</v>
+        <v>131</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>838</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>849</v>
+        <v>171</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>860</v>
+        <v>199</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>871</v>
+        <v>226</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>882</v>
+        <v>254</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>894</v>
+        <v>288</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>898</v>
+        <v>299</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>902</v>
+        <v>312</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>906</v>
+        <v>326</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>910</v>
+        <v>344</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>914</v>
+        <v>354</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>925</v>
+        <v>382</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>936</v>
+        <v>413</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>947</v>
+        <v>443</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>958</v>
+        <v>475</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>969</v>
+        <v>506</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>980</v>
+        <v>532</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>991</v>
+        <v>562</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>1002</v>
+        <v>592</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1007</v>
+        <v>605</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>1018</v>
+        <v>630</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>1022</v>
+        <v>638</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>1027</v>
+        <v>643</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>1031</v>
+        <v>652</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>1036</v>
+        <v>661</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>1041</v>
+        <v>670</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>1052</v>
+        <v>701</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>1063</v>
+        <v>729</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>1074</v>
+        <v>758</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>1211</v>
-      </c>
+        <v>792</v>
+      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>823</v>
+        <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>132</v>
@@ -31406,7 +28408,7 @@
         <v>227</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>883</v>
+        <v>255</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>289</v>
@@ -31448,7 +28450,7 @@
         <v>563</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>1003</v>
+        <v>593</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>606</v>
@@ -31457,7 +28459,7 @@
         <v>631</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>1023</v>
+        <v>89</v>
       </c>
       <c r="Z7" s="6" t="s">
         <v>89</v>
@@ -31478,26 +28480,16 @@
         <v>730</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>1075</v>
+        <v>759</v>
       </c>
       <c r="AG7" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AH7" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>1212</v>
-      </c>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -31599,21 +28591,11 @@
       <c r="AG8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31883,21 +28865,11 @@
       <c r="AG2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -31999,21 +28971,11 @@
       <c r="AG3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -32115,21 +29077,11 @@
       <c r="AG4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -32231,21 +29183,11 @@
       <c r="AG5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -32347,21 +29289,11 @@
       <c r="AG6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL6" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -32463,21 +29395,11 @@
       <c r="AG7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -32579,21 +29501,11 @@
       <c r="AG8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -32695,21 +29607,11 @@
       <c r="AG9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL9" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -32811,21 +29713,11 @@
       <c r="AG10" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="AH10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -32927,21 +29819,11 @@
       <c r="AG11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -33043,21 +29925,11 @@
       <c r="AG12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL12" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -33159,21 +30031,11 @@
       <c r="AG13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -33275,21 +30137,11 @@
       <c r="AG14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ14" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AL14" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -33391,21 +30243,11 @@
       <c r="AG15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -33507,21 +30349,11 @@
       <c r="AG16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -33623,21 +30455,11 @@
       <c r="AG17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL17" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -33739,21 +30561,11 @@
       <c r="AG18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -33855,21 +30667,11 @@
       <c r="AG19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -33971,21 +30773,11 @@
       <c r="AG20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -34087,21 +30879,11 @@
       <c r="AG21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL21" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -34203,21 +30985,11 @@
       <c r="AG22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -34319,21 +31091,11 @@
       <c r="AG23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL23" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -34435,21 +31197,11 @@
       <c r="AG24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -34551,21 +31303,11 @@
       <c r="AG25" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="AH25" s="5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AI25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>1213</v>
-      </c>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -34667,21 +31409,11 @@
       <c r="AG26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -34783,21 +31515,11 @@
       <c r="AG27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -34899,21 +31621,11 @@
       <c r="AG28" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="AH28" s="5" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AI28" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>1156</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -35015,21 +31727,11 @@
       <c r="AG29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -35131,21 +31833,11 @@
       <c r="AG30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -35247,21 +31939,11 @@
       <c r="AG31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -35363,21 +32045,11 @@
       <c r="AG32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -35479,21 +32151,11 @@
       <c r="AG33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -35595,21 +32257,11 @@
       <c r="AG34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -35711,21 +32363,11 @@
       <c r="AG35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -35827,21 +32469,11 @@
       <c r="AG36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -35943,21 +32575,11 @@
       <c r="AG37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -36059,21 +32681,11 @@
       <c r="AG38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -36175,21 +32787,11 @@
       <c r="AG39" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="AH39" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AI39" s="4" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AJ39" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AK39" s="4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AL39" s="4" t="s">
-        <v>1214</v>
-      </c>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -36291,21 +32893,11 @@
       <c r="AG40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL40" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -36407,21 +32999,11 @@
       <c r="AG41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL41" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -36523,21 +33105,11 @@
       <c r="AG42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL42" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modello/nuovi modelli/inputTesiModificati/test2/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiModificati/test2/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9330" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19246" uniqueCount="1215">
   <si>
     <t>ANSPs</t>
   </si>
@@ -2738,6 +2738,1194 @@
   </si>
   <si>
     <t>2.10194</t>
+  </si>
+  <si>
+    <t>0.0241057</t>
+  </si>
+  <si>
+    <t>1.57214e-012</t>
+  </si>
+  <si>
+    <t>6.68948e-012</t>
+  </si>
+  <si>
+    <t>0.000311911</t>
+  </si>
+  <si>
+    <t>9.35732e-010</t>
+  </si>
+  <si>
+    <t>0.743555</t>
+  </si>
+  <si>
+    <t>0.0235987</t>
+  </si>
+  <si>
+    <t>0.232846</t>
+  </si>
+  <si>
+    <t>19.57</t>
+  </si>
+  <si>
+    <t>56.392</t>
+  </si>
+  <si>
+    <t>5338.72</t>
+  </si>
+  <si>
+    <t>5414.68</t>
+  </si>
+  <si>
+    <t>0.00451186</t>
+  </si>
+  <si>
+    <t>0.00159052</t>
+  </si>
+  <si>
+    <t>2.06858e-005</t>
+  </si>
+  <si>
+    <t>6.80445e-005</t>
+  </si>
+  <si>
+    <t>0.0608791</t>
+  </si>
+  <si>
+    <t>9.88341e-012</t>
+  </si>
+  <si>
+    <t>2.62175e-011</t>
+  </si>
+  <si>
+    <t>0.000496533</t>
+  </si>
+  <si>
+    <t>0.607234</t>
+  </si>
+  <si>
+    <t>0.0531092</t>
+  </si>
+  <si>
+    <t>0.339657</t>
+  </si>
+  <si>
+    <t>46.4385</t>
+  </si>
+  <si>
+    <t>71.4163</t>
+  </si>
+  <si>
+    <t>5282.51</t>
+  </si>
+  <si>
+    <t>5400.37</t>
+  </si>
+  <si>
+    <t>0.00272238</t>
+  </si>
+  <si>
+    <t>9.39907e-006</t>
+  </si>
+  <si>
+    <t>2.31606e-005</t>
+  </si>
+  <si>
+    <t>4.24626e-005</t>
+  </si>
+  <si>
+    <t>0.499492</t>
+  </si>
+  <si>
+    <t>0.0914509</t>
+  </si>
+  <si>
+    <t>0.409057</t>
+  </si>
+  <si>
+    <t>1.34822</t>
+  </si>
+  <si>
+    <t>474.727</t>
+  </si>
+  <si>
+    <t>5583.52</t>
+  </si>
+  <si>
+    <t>6059.6</t>
+  </si>
+  <si>
+    <t>0.00261898</t>
+  </si>
+  <si>
+    <t>1.06385e-005</t>
+  </si>
+  <si>
+    <t>1.17446e-005</t>
+  </si>
+  <si>
+    <t>3.47773e-005</t>
+  </si>
+  <si>
+    <t>0.851318</t>
+  </si>
+  <si>
+    <t>0.047311</t>
+  </si>
+  <si>
+    <t>0.101371</t>
+  </si>
+  <si>
+    <t>47.4816</t>
+  </si>
+  <si>
+    <t>116.991</t>
+  </si>
+  <si>
+    <t>6021.88</t>
+  </si>
+  <si>
+    <t>6186.35</t>
+  </si>
+  <si>
+    <t>0.00327832</t>
+  </si>
+  <si>
+    <t>9.33667e-006</t>
+  </si>
+  <si>
+    <t>2.55973e-005</t>
+  </si>
+  <si>
+    <t>5.25759e-005</t>
+  </si>
+  <si>
+    <t>0.731688</t>
+  </si>
+  <si>
+    <t>0.0104301</t>
+  </si>
+  <si>
+    <t>0.257882</t>
+  </si>
+  <si>
+    <t>86.946</t>
+  </si>
+  <si>
+    <t>57.9878</t>
+  </si>
+  <si>
+    <t>5172.15</t>
+  </si>
+  <si>
+    <t>5317.09</t>
+  </si>
+  <si>
+    <t>0.00637105</t>
+  </si>
+  <si>
+    <t>1.05895e-013</t>
+  </si>
+  <si>
+    <t>3.02032e-013</t>
+  </si>
+  <si>
+    <t>7.236e-005</t>
+  </si>
+  <si>
+    <t>2.1708e-010</t>
+  </si>
+  <si>
+    <t>0.867202</t>
+  </si>
+  <si>
+    <t>0.0298304</t>
+  </si>
+  <si>
+    <t>0.102968</t>
+  </si>
+  <si>
+    <t>48.8371</t>
+  </si>
+  <si>
+    <t>51.3074</t>
+  </si>
+  <si>
+    <t>4259.49</t>
+  </si>
+  <si>
+    <t>4359.63</t>
+  </si>
+  <si>
+    <t>0.00590221</t>
+  </si>
+  <si>
+    <t>0.000163059</t>
+  </si>
+  <si>
+    <t>0.00037179</t>
+  </si>
+  <si>
+    <t>5.21063e-005</t>
+  </si>
+  <si>
+    <t>0.0128956</t>
+  </si>
+  <si>
+    <t>0.00109531</t>
+  </si>
+  <si>
+    <t>0.00205705</t>
+  </si>
+  <si>
+    <t>5.73723e-005</t>
+  </si>
+  <si>
+    <t>0.000478541</t>
+  </si>
+  <si>
+    <t>1.53071e-005</t>
+  </si>
+  <si>
+    <t>2.25588e-005</t>
+  </si>
+  <si>
+    <t>5.92748e-006</t>
+  </si>
+  <si>
+    <t>0.00131114</t>
+  </si>
+  <si>
+    <t>1.19411e-005</t>
+  </si>
+  <si>
+    <t>9.77774e-006</t>
+  </si>
+  <si>
+    <t>1.44598e-005</t>
+  </si>
+  <si>
+    <t>0.000412876</t>
+  </si>
+  <si>
+    <t>2.31878e-005</t>
+  </si>
+  <si>
+    <t>2.49935e-005</t>
+  </si>
+  <si>
+    <t>3.504e-006</t>
+  </si>
+  <si>
+    <t>4.58484</t>
+  </si>
+  <si>
+    <t>0.103725</t>
+  </si>
+  <si>
+    <t>0.708144</t>
+  </si>
+  <si>
+    <t>0.00555556</t>
+  </si>
+  <si>
+    <t>0.372033</t>
+  </si>
+  <si>
+    <t>0.627967</t>
+  </si>
+  <si>
+    <t>0.727403</t>
+  </si>
+  <si>
+    <t>218.589</t>
+  </si>
+  <si>
+    <t>108.973</t>
+  </si>
+  <si>
+    <t>9016.14</t>
+  </si>
+  <si>
+    <t>9344.42</t>
+  </si>
+  <si>
+    <t>0.000644636</t>
+  </si>
+  <si>
+    <t>2.0155e-005</t>
+  </si>
+  <si>
+    <t>2.10621e-005</t>
+  </si>
+  <si>
+    <t>6.81904e-006</t>
+  </si>
+  <si>
+    <t>0.507418</t>
+  </si>
+  <si>
+    <t>0.492582</t>
+  </si>
+  <si>
+    <t>87.5627</t>
+  </si>
+  <si>
+    <t>5.44325</t>
+  </si>
+  <si>
+    <t>52.6093</t>
+  </si>
+  <si>
+    <t>11923.4</t>
+  </si>
+  <si>
+    <t>12069</t>
+  </si>
+  <si>
+    <t>0.000710467</t>
+  </si>
+  <si>
+    <t>1.89878e-006</t>
+  </si>
+  <si>
+    <t>2.21376e-006</t>
+  </si>
+  <si>
+    <t>9.81421e-006</t>
+  </si>
+  <si>
+    <t>0.976334</t>
+  </si>
+  <si>
+    <t>0.0236657</t>
+  </si>
+  <si>
+    <t>33.1973</t>
+  </si>
+  <si>
+    <t>135.203</t>
+  </si>
+  <si>
+    <t>49.7452</t>
+  </si>
+  <si>
+    <t>5838.13</t>
+  </si>
+  <si>
+    <t>6056.27</t>
+  </si>
+  <si>
+    <t>0.0075171</t>
+  </si>
+  <si>
+    <t>9.97246e-005</t>
+  </si>
+  <si>
+    <t>0.00013375</t>
+  </si>
+  <si>
+    <t>8.16542e-005</t>
+  </si>
+  <si>
+    <t>0.647034</t>
+  </si>
+  <si>
+    <t>0.274475</t>
+  </si>
+  <si>
+    <t>0.00909343</t>
+  </si>
+  <si>
+    <t>0.0693973</t>
+  </si>
+  <si>
+    <t>89.0462</t>
+  </si>
+  <si>
+    <t>1655.47</t>
+  </si>
+  <si>
+    <t>1744.51</t>
+  </si>
+  <si>
+    <t>0.00331442</t>
+  </si>
+  <si>
+    <t>0.000111825</t>
+  </si>
+  <si>
+    <t>0.000129862</t>
+  </si>
+  <si>
+    <t>2.75609e-005</t>
+  </si>
+  <si>
+    <t>0.709644</t>
+  </si>
+  <si>
+    <t>0.013586</t>
+  </si>
+  <si>
+    <t>0.27677</t>
+  </si>
+  <si>
+    <t>4.10871</t>
+  </si>
+  <si>
+    <t>76.3018</t>
+  </si>
+  <si>
+    <t>5146.58</t>
+  </si>
+  <si>
+    <t>5226.99</t>
+  </si>
+  <si>
+    <t>0.00566245</t>
+  </si>
+  <si>
+    <t>0.00233602</t>
+  </si>
+  <si>
+    <t>4.27394e-006</t>
+  </si>
+  <si>
+    <t>0.000101342</t>
+  </si>
+  <si>
+    <t>0.716607</t>
+  </si>
+  <si>
+    <t>0.0264211</t>
+  </si>
+  <si>
+    <t>0.256971</t>
+  </si>
+  <si>
+    <t>11.6626</t>
+  </si>
+  <si>
+    <t>185.763</t>
+  </si>
+  <si>
+    <t>5383.09</t>
+  </si>
+  <si>
+    <t>5580.51</t>
+  </si>
+  <si>
+    <t>0.00459597</t>
+  </si>
+  <si>
+    <t>1.24688e-013</t>
+  </si>
+  <si>
+    <t>1.98784e-013</t>
+  </si>
+  <si>
+    <t>6.69507e-005</t>
+  </si>
+  <si>
+    <t>0.764995</t>
+  </si>
+  <si>
+    <t>0.111271</t>
+  </si>
+  <si>
+    <t>0.09024</t>
+  </si>
+  <si>
+    <t>0.0334942</t>
+  </si>
+  <si>
+    <t>19.5633</t>
+  </si>
+  <si>
+    <t>6111.46</t>
+  </si>
+  <si>
+    <t>6131.02</t>
+  </si>
+  <si>
+    <t>0.00268465</t>
+  </si>
+  <si>
+    <t>1.14779e-005</t>
+  </si>
+  <si>
+    <t>1.4261e-005</t>
+  </si>
+  <si>
+    <t>3.26639e-005</t>
+  </si>
+  <si>
+    <t>0.141086</t>
+  </si>
+  <si>
+    <t>0.639103</t>
+  </si>
+  <si>
+    <t>0.191146</t>
+  </si>
+  <si>
+    <t>0.0286652</t>
+  </si>
+  <si>
+    <t>27.5265</t>
+  </si>
+  <si>
+    <t>940.517</t>
+  </si>
+  <si>
+    <t>968.043</t>
+  </si>
+  <si>
+    <t>0.0227511</t>
+  </si>
+  <si>
+    <t>9.6192e-013</t>
+  </si>
+  <si>
+    <t>2.49133e-012</t>
+  </si>
+  <si>
+    <t>0.00023141</t>
+  </si>
+  <si>
+    <t>6.9423e-010</t>
+  </si>
+  <si>
+    <t>0.00845366</t>
+  </si>
+  <si>
+    <t>0.00453636</t>
+  </si>
+  <si>
+    <t>0.00127123</t>
+  </si>
+  <si>
+    <t>0.000207673</t>
+  </si>
+  <si>
+    <t>0.823596</t>
+  </si>
+  <si>
+    <t>0.0238244</t>
+  </si>
+  <si>
+    <t>0.152579</t>
+  </si>
+  <si>
+    <t>88.9158</t>
+  </si>
+  <si>
+    <t>5.61822</t>
+  </si>
+  <si>
+    <t>4962.46</t>
+  </si>
+  <si>
+    <t>5056.99</t>
+  </si>
+  <si>
+    <t>0.00290907</t>
+  </si>
+  <si>
+    <t>6.6375e-005</t>
+  </si>
+  <si>
+    <t>0.000131791</t>
+  </si>
+  <si>
+    <t>5.38401e-005</t>
+  </si>
+  <si>
+    <t>0.0351519</t>
+  </si>
+  <si>
+    <t>3.64691e-012</t>
+  </si>
+  <si>
+    <t>4.77082e-012</t>
+  </si>
+  <si>
+    <t>0.000371642</t>
+  </si>
+  <si>
+    <t>1.11493e-009</t>
+  </si>
+  <si>
+    <t>13.3015</t>
+  </si>
+  <si>
+    <t>1.05413</t>
+  </si>
+  <si>
+    <t>0.0119235</t>
+  </si>
+  <si>
+    <t>0.0333333</t>
+  </si>
+  <si>
+    <t>0.0520021</t>
+  </si>
+  <si>
+    <t>7.96511e-012</t>
+  </si>
+  <si>
+    <t>2.454e-011</t>
+  </si>
+  <si>
+    <t>0.00044842</t>
+  </si>
+  <si>
+    <t>0.00344033</t>
+  </si>
+  <si>
+    <t>0.0165991</t>
+  </si>
+  <si>
+    <t>0.00256219</t>
+  </si>
+  <si>
+    <t>0.000567529</t>
+  </si>
+  <si>
+    <t>0.000118624</t>
+  </si>
+  <si>
+    <t>-2.27374e-013</t>
+  </si>
+  <si>
+    <t>0.000642764</t>
+  </si>
+  <si>
+    <t>5.27748e-006</t>
+  </si>
+  <si>
+    <t>6.56189e-006</t>
+  </si>
+  <si>
+    <t>9.06045e-006</t>
+  </si>
+  <si>
+    <t>0.536112</t>
+  </si>
+  <si>
+    <t>0.0197185</t>
+  </si>
+  <si>
+    <t>0.444169</t>
+  </si>
+  <si>
+    <t>3.04447</t>
+  </si>
+  <si>
+    <t>482.332</t>
+  </si>
+  <si>
+    <t>2334.23</t>
+  </si>
+  <si>
+    <t>2819.6</t>
+  </si>
+  <si>
+    <t>0.00445379</t>
+  </si>
+  <si>
+    <t>0.00022195</t>
+  </si>
+  <si>
+    <t>0.000266035</t>
+  </si>
+  <si>
+    <t>4.43178e-005</t>
+  </si>
+  <si>
+    <t>0.78859</t>
+  </si>
+  <si>
+    <t>0.0332233</t>
+  </si>
+  <si>
+    <t>0.178187</t>
+  </si>
+  <si>
+    <t>11.7252</t>
+  </si>
+  <si>
+    <t>21.7469</t>
+  </si>
+  <si>
+    <t>5708.01</t>
+  </si>
+  <si>
+    <t>5741.48</t>
+  </si>
+  <si>
+    <t>0.00461118</t>
+  </si>
+  <si>
+    <t>1.0494e-013</t>
+  </si>
+  <si>
+    <t>2.22366e-013</t>
+  </si>
+  <si>
+    <t>6.63546e-005</t>
+  </si>
+  <si>
+    <t>0.48432</t>
+  </si>
+  <si>
+    <t>0.514918</t>
+  </si>
+  <si>
+    <t>0.000761843</t>
+  </si>
+  <si>
+    <t>11.6746</t>
+  </si>
+  <si>
+    <t>27.1296</t>
+  </si>
+  <si>
+    <t>2821.19</t>
+  </si>
+  <si>
+    <t>2859.99</t>
+  </si>
+  <si>
+    <t>0.0201054</t>
+  </si>
+  <si>
+    <t>9.7859e-013</t>
+  </si>
+  <si>
+    <t>3.31212e-012</t>
+  </si>
+  <si>
+    <t>0.000219242</t>
+  </si>
+  <si>
+    <t>6.57727e-010</t>
+  </si>
+  <si>
+    <t>0.766088</t>
+  </si>
+  <si>
+    <t>0.0685598</t>
+  </si>
+  <si>
+    <t>0.082089</t>
+  </si>
+  <si>
+    <t>0.0832634</t>
+  </si>
+  <si>
+    <t>85.6431</t>
+  </si>
+  <si>
+    <t>830.608</t>
+  </si>
+  <si>
+    <t>916.251</t>
+  </si>
+  <si>
+    <t>0.00298755</t>
+  </si>
+  <si>
+    <t>0.000162573</t>
+  </si>
+  <si>
+    <t>0.000227641</t>
+  </si>
+  <si>
+    <t>2.05238e-005</t>
+  </si>
+  <si>
+    <t>0.874806</t>
+  </si>
+  <si>
+    <t>0.104557</t>
+  </si>
+  <si>
+    <t>0.0206374</t>
+  </si>
+  <si>
+    <t>76.3597</t>
+  </si>
+  <si>
+    <t>64.2548</t>
+  </si>
+  <si>
+    <t>7109.41</t>
+  </si>
+  <si>
+    <t>7250.03</t>
+  </si>
+  <si>
+    <t>0.00305739</t>
+  </si>
+  <si>
+    <t>0.00111607</t>
+  </si>
+  <si>
+    <t>1.00983e-013</t>
+  </si>
+  <si>
+    <t>3.69237e-005</t>
+  </si>
+  <si>
+    <t>1.10771e-010</t>
+  </si>
+  <si>
+    <t>1.67241</t>
+  </si>
+  <si>
+    <t>0.193214</t>
+  </si>
+  <si>
+    <t>0.317168</t>
+  </si>
+  <si>
+    <t>0.429207</t>
+  </si>
+  <si>
+    <t>0.0684629</t>
+  </si>
+  <si>
+    <t>0.50233</t>
+  </si>
+  <si>
+    <t>119.661</t>
+  </si>
+  <si>
+    <t>94.4571</t>
+  </si>
+  <si>
+    <t>3994.4</t>
+  </si>
+  <si>
+    <t>4208.51</t>
+  </si>
+  <si>
+    <t>0.32089</t>
+  </si>
+  <si>
+    <t>0.67911</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.0495745</t>
+  </si>
+  <si>
+    <t>0.933693</t>
+  </si>
+  <si>
+    <t>0.0167325</t>
+  </si>
+  <si>
+    <t>1.48928</t>
+  </si>
+  <si>
+    <t>0.767641</t>
+  </si>
+  <si>
+    <t>0.568309</t>
+  </si>
+  <si>
+    <t>1.35075</t>
+  </si>
+  <si>
+    <t>1.75961</t>
+  </si>
+  <si>
+    <t>0.00171105</t>
+  </si>
+  <si>
+    <t>0.00138122</t>
+  </si>
+  <si>
+    <t>2.90936e-005</t>
+  </si>
+  <si>
+    <t>7.51698e-005</t>
+  </si>
+  <si>
+    <t>2.8243e-005</t>
+  </si>
+  <si>
+    <t>0.101675</t>
+  </si>
+  <si>
+    <t>0.511761</t>
+  </si>
+  <si>
+    <t>0.378873</t>
+  </si>
+  <si>
+    <t>0.568901</t>
+  </si>
+  <si>
+    <t>0.406498</t>
+  </si>
+  <si>
+    <t>0.0246007</t>
+  </si>
+  <si>
+    <t>9.05914</t>
+  </si>
+  <si>
+    <t>60.8481</t>
+  </si>
+  <si>
+    <t>3368.51</t>
+  </si>
+  <si>
+    <t>3438.41</t>
+  </si>
+  <si>
+    <t>0.684982</t>
+  </si>
+  <si>
+    <t>0.251308</t>
+  </si>
+  <si>
+    <t>0.0637104</t>
+  </si>
+  <si>
+    <t>0.758554</t>
+  </si>
+  <si>
+    <t>0.126231</t>
+  </si>
+  <si>
+    <t>0.737607</t>
+  </si>
+  <si>
+    <t>0.136163</t>
+  </si>
+  <si>
+    <t>1.31351</t>
+  </si>
+  <si>
+    <t>1.16199</t>
+  </si>
+  <si>
+    <t>0.0313476</t>
+  </si>
+  <si>
+    <t>0.756315</t>
+  </si>
+  <si>
+    <t>1.53638</t>
+  </si>
+  <si>
+    <t>0.0414478</t>
+  </si>
+  <si>
+    <t>1.3222</t>
+  </si>
+  <si>
+    <t>0.0941071</t>
+  </si>
+  <si>
+    <t>0.00549451</t>
+  </si>
+  <si>
+    <t>0.00861776</t>
+  </si>
+  <si>
+    <t>4.49157e-005</t>
+  </si>
+  <si>
+    <t>0.000256702</t>
+  </si>
+  <si>
+    <t>0.00770106</t>
+  </si>
+  <si>
+    <t>0.77466</t>
+  </si>
+  <si>
+    <t>0.0208984</t>
+  </si>
+  <si>
+    <t>0.50421</t>
+  </si>
+  <si>
+    <t>0.835741</t>
+  </si>
+  <si>
+    <t>0.0193503</t>
+  </si>
+  <si>
+    <t>0.144908</t>
+  </si>
+  <si>
+    <t>112.458</t>
+  </si>
+  <si>
+    <t>42.3754</t>
+  </si>
+  <si>
+    <t>5607.22</t>
+  </si>
+  <si>
+    <t>5762.05</t>
+  </si>
+  <si>
+    <t>0.00505311</t>
+  </si>
+  <si>
+    <t>0.712055</t>
+  </si>
+  <si>
+    <t>0.282892</t>
+  </si>
+  <si>
+    <t>0.691427</t>
+  </si>
+  <si>
+    <t>0.0240635</t>
+  </si>
+  <si>
+    <t>0.565294</t>
+  </si>
+  <si>
+    <t>0.410642</t>
+  </si>
+  <si>
+    <t>1.40252</t>
+  </si>
+  <si>
+    <t>2.71878</t>
+  </si>
+  <si>
+    <t>0.330104</t>
+  </si>
+  <si>
+    <t>0.620951</t>
+  </si>
+  <si>
+    <t>4.3784</t>
+  </si>
+  <si>
+    <t>0.531609</t>
+  </si>
+  <si>
+    <t>1.61043</t>
+  </si>
+  <si>
+    <t>0.00650212</t>
+  </si>
+  <si>
+    <t>0.00180505</t>
+  </si>
+  <si>
+    <t>2.53125e-006</t>
+  </si>
+  <si>
+    <t>6.09025e-006</t>
+  </si>
+  <si>
+    <t>6.98079e-005</t>
+  </si>
+  <si>
+    <t>0.00418848</t>
+  </si>
+  <si>
+    <t>1.81252</t>
+  </si>
+  <si>
+    <t>0.220069</t>
+  </si>
+  <si>
+    <t>0.413968</t>
+  </si>
+  <si>
+    <t>0.90009</t>
+  </si>
+  <si>
+    <t>0.09991</t>
+  </si>
+  <si>
+    <t>486.643</t>
+  </si>
+  <si>
+    <t>237.938</t>
+  </si>
+  <si>
+    <t>118.271</t>
+  </si>
+  <si>
+    <t>7110.83</t>
+  </si>
+  <si>
+    <t>7953.68</t>
+  </si>
+  <si>
+    <t>0.134143</t>
+  </si>
+  <si>
+    <t>0.823573</t>
+  </si>
+  <si>
+    <t>0.0422835</t>
+  </si>
+  <si>
+    <t>0.442709</t>
+  </si>
+  <si>
+    <t>0.338942</t>
+  </si>
+  <si>
+    <t>0.529608</t>
+  </si>
+  <si>
+    <t>0.131449</t>
+  </si>
+  <si>
+    <t>2.16153</t>
+  </si>
+  <si>
+    <t>3.73991</t>
+  </si>
+  <si>
+    <t>0.341239</t>
+  </si>
+  <si>
+    <t>-1.38198e-009</t>
+  </si>
+  <si>
+    <t>10.9598</t>
+  </si>
+  <si>
+    <t>2.9305</t>
+  </si>
+  <si>
+    <t>0.00320735</t>
+  </si>
+  <si>
+    <t>0.000593824</t>
+  </si>
+  <si>
+    <t>1.0364e-013</t>
+  </si>
+  <si>
+    <t>3.0194e-005</t>
+  </si>
+  <si>
+    <t>9.05821e-011</t>
+  </si>
+  <si>
+    <t>2.49327</t>
+  </si>
+  <si>
+    <t>0.227493</t>
   </si>
 </sst>
 </file>
@@ -3282,7 +4470,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>90</v>
@@ -3294,7 +4482,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>90</v>
@@ -3333,7 +4521,7 @@
         <v>90</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>511</v>
+        <v>90</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>90</v>
@@ -3345,7 +4533,7 @@
         <v>90</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>609</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>90</v>
@@ -3377,10 +4565,18 @@
       <c r="AH2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
+      <c r="AI2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -3485,10 +4681,18 @@
       <c r="AH3" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AI3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -3593,10 +4797,18 @@
       <c r="AH4" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
+      <c r="AI4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -3701,10 +4913,18 @@
       <c r="AH5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
+      <c r="AI5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -3809,10 +5029,18 @@
       <c r="AH6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
+      <c r="AI6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -3917,10 +5145,18 @@
       <c r="AH7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AI7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -4025,10 +5261,18 @@
       <c r="AH8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
+      <c r="AI8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -4133,10 +5377,18 @@
       <c r="AH9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
+      <c r="AI9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -4146,25 +5398,25 @@
         <v>90</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>824</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>90</v>
+        <v>839</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>90</v>
+        <v>850</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>90</v>
+        <v>861</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>90</v>
+        <v>872</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>259</v>
+        <v>884</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>89</v>
@@ -4182,34 +5434,34 @@
         <v>90</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>90</v>
+        <v>915</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>90</v>
+        <v>926</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>90</v>
+        <v>937</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>90</v>
+        <v>948</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>90</v>
+        <v>959</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>90</v>
+        <v>981</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>90</v>
+        <v>992</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X10" s="8" t="s">
-        <v>90</v>
+        <v>1008</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>90</v>
@@ -4227,24 +5479,32 @@
         <v>90</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>674</v>
+        <v>1042</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>90</v>
+        <v>1053</v>
       </c>
       <c r="AF10" s="8" t="s">
-        <v>90</v>
+        <v>1064</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>763</v>
+        <v>1076</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
+        <v>1087</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AL10" s="8" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -4260,7 +5520,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>90</v>
@@ -4349,10 +5609,18 @@
       <c r="AH11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+      <c r="AI11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -4407,7 +5675,7 @@
         <v>90</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>90</v>
+        <v>949</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>90</v>
@@ -4416,7 +5684,7 @@
         <v>90</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>90</v>
+        <v>982</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>90</v>
@@ -4452,15 +5720,23 @@
         <v>90</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>90</v>
+        <v>1077</v>
       </c>
       <c r="AH12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
+      <c r="AI12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -4470,25 +5746,25 @@
         <v>90</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>90</v>
+        <v>825</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>90</v>
+        <v>840</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>175</v>
+        <v>851</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>90</v>
+        <v>862</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>90</v>
+        <v>873</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>90</v>
+        <v>885</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>90</v>
@@ -4506,25 +5782,25 @@
         <v>90</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>355</v>
+        <v>916</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>387</v>
+        <v>927</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>90</v>
+        <v>938</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>448</v>
+        <v>950</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>90</v>
+        <v>960</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>90</v>
+        <v>971</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>537</v>
+        <v>983</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>90</v>
@@ -4533,7 +5809,7 @@
         <v>90</v>
       </c>
       <c r="X13" s="8" t="s">
-        <v>90</v>
+        <v>1009</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>90</v>
@@ -4551,24 +5827,32 @@
         <v>90</v>
       </c>
       <c r="AD13" s="8" t="s">
-        <v>90</v>
+        <v>1043</v>
       </c>
       <c r="AE13" s="8" t="s">
-        <v>90</v>
+        <v>1054</v>
       </c>
       <c r="AF13" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>764</v>
+        <v>1078</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
+        <v>1088</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>1189</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -4593,10 +5877,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>90</v>
@@ -4620,22 +5904,22 @@
         <v>90</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>418</v>
+        <v>90</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>481</v>
+        <v>90</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>512</v>
+        <v>90</v>
       </c>
       <c r="U14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>567</v>
+        <v>993</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>90</v>
@@ -4659,13 +5943,13 @@
         <v>90</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>675</v>
+        <v>90</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>707</v>
+        <v>90</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>734</v>
+        <v>90</v>
       </c>
       <c r="AG14" s="8" t="s">
         <v>90</v>
@@ -4673,10 +5957,18 @@
       <c r="AH14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
+      <c r="AI14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -4781,10 +6073,18 @@
       <c r="AH15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
+      <c r="AI15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -4889,10 +6189,18 @@
       <c r="AH16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
+      <c r="AI16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -4997,10 +6305,18 @@
       <c r="AH17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
+      <c r="AI17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -5105,10 +6421,18 @@
       <c r="AH18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
+      <c r="AI18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -5213,10 +6537,18 @@
       <c r="AH19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
+      <c r="AI19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -5321,10 +6653,18 @@
       <c r="AH20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
+      <c r="AI20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -5429,10 +6769,18 @@
       <c r="AH21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
+      <c r="AI21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -5537,10 +6885,18 @@
       <c r="AH22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
+      <c r="AI22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -5645,10 +7001,18 @@
       <c r="AH23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
+      <c r="AI23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -5753,10 +7117,18 @@
       <c r="AH24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
+      <c r="AI24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -5861,10 +7233,18 @@
       <c r="AH25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
+      <c r="AI25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL25" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -5931,7 +7311,7 @@
         <v>90</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>90</v>
+        <v>994</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>90</v>
@@ -5961,7 +7341,7 @@
         <v>90</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>90</v>
+        <v>1065</v>
       </c>
       <c r="AG26" s="8" t="s">
         <v>90</v>
@@ -5969,10 +7349,18 @@
       <c r="AH26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
+      <c r="AI26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AK26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -6077,10 +7465,18 @@
       <c r="AH27" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
+      <c r="AI27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -6090,25 +7486,25 @@
         <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>110</v>
+        <v>826</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>151</v>
+        <v>841</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>176</v>
+        <v>852</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>205</v>
+        <v>863</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>231</v>
+        <v>874</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>261</v>
+        <v>886</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>90</v>
@@ -6126,34 +7522,34 @@
         <v>90</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>388</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>419</v>
+        <v>90</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>449</v>
+        <v>951</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>482</v>
+        <v>961</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>513</v>
+        <v>972</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>538</v>
+        <v>984</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>568</v>
+        <v>995</v>
       </c>
       <c r="W28" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>610</v>
+        <v>1010</v>
       </c>
       <c r="Y28" s="8" t="s">
         <v>90</v>
@@ -6171,24 +7567,32 @@
         <v>90</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>676</v>
+        <v>1044</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>708</v>
+        <v>1055</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>735</v>
+        <v>1066</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>765</v>
+        <v>1079</v>
       </c>
       <c r="AH28" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
+        <v>1089</v>
+      </c>
+      <c r="AI28" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AK28" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AL28" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -6237,7 +7641,7 @@
         <v>90</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="8" t="s">
         <v>90</v>
@@ -6293,10 +7697,18 @@
       <c r="AH29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
+      <c r="AI29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -6401,10 +7813,18 @@
       <c r="AH30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
+      <c r="AI30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -6509,10 +7929,18 @@
       <c r="AH31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
+      <c r="AI31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -6617,10 +8045,18 @@
       <c r="AH32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
+      <c r="AI32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -6725,10 +8161,18 @@
       <c r="AH33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
+      <c r="AI33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -6833,10 +8277,18 @@
       <c r="AH34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="8"/>
+      <c r="AI34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -6941,10 +8393,18 @@
       <c r="AH35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="8"/>
+      <c r="AI35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -7049,10 +8509,18 @@
       <c r="AH36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="8"/>
+      <c r="AI36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -7157,10 +8625,18 @@
       <c r="AH37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="8"/>
+      <c r="AI37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -7265,10 +8741,18 @@
       <c r="AH38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="8"/>
+      <c r="AI38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -7278,19 +8762,19 @@
         <v>90</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>111</v>
+        <v>827</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>152</v>
+        <v>842</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>90</v>
+        <v>853</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>206</v>
+        <v>864</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>90</v>
@@ -7314,10 +8798,10 @@
         <v>90</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>90</v>
+        <v>917</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>90</v>
+        <v>928</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>90</v>
@@ -7326,10 +8810,10 @@
         <v>90</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>90</v>
+        <v>962</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>90</v>
+        <v>973</v>
       </c>
       <c r="U39" s="8" t="s">
         <v>90</v>
@@ -7341,7 +8825,7 @@
         <v>90</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>611</v>
+        <v>1011</v>
       </c>
       <c r="Y39" s="8" t="s">
         <v>90</v>
@@ -7359,10 +8843,10 @@
         <v>90</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>90</v>
+        <v>1045</v>
       </c>
       <c r="AE39" s="8" t="s">
-        <v>90</v>
+        <v>1056</v>
       </c>
       <c r="AF39" s="8" t="s">
         <v>90</v>
@@ -7373,10 +8857,18 @@
       <c r="AH39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="8"/>
+      <c r="AI39" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL39" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -7395,16 +8887,16 @@
         <v>90</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>232</v>
+        <v>875</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>262</v>
+        <v>887</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>90</v>
@@ -7422,28 +8914,28 @@
         <v>90</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>357</v>
+        <v>90</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>420</v>
+        <v>939</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>450</v>
+        <v>952</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>483</v>
+        <v>90</v>
       </c>
       <c r="T40" s="8" t="s">
         <v>90</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>539</v>
+        <v>985</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>569</v>
+        <v>996</v>
       </c>
       <c r="W40" s="8" t="s">
         <v>90</v>
@@ -7467,24 +8959,32 @@
         <v>90</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>677</v>
+        <v>90</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>709</v>
+        <v>90</v>
       </c>
       <c r="AF40" s="8" t="s">
-        <v>736</v>
+        <v>1067</v>
       </c>
       <c r="AG40" s="8" t="s">
-        <v>766</v>
+        <v>1080</v>
       </c>
       <c r="AH40" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
+        <v>1090</v>
+      </c>
+      <c r="AI40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AK40" s="8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AL40" s="8" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -7494,31 +8994,31 @@
         <v>90</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>178</v>
+        <v>854</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>90</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>90</v>
@@ -7530,34 +9030,34 @@
         <v>90</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>358</v>
+        <v>918</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>390</v>
+        <v>929</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>421</v>
+        <v>940</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>451</v>
+        <v>90</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>484</v>
+        <v>90</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>514</v>
+        <v>974</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>540</v>
+        <v>90</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>570</v>
+        <v>90</v>
       </c>
       <c r="W41" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>612</v>
+        <v>1012</v>
       </c>
       <c r="Y41" s="8" t="s">
         <v>90</v>
@@ -7575,24 +9075,32 @@
         <v>90</v>
       </c>
       <c r="AD41" s="8" t="s">
-        <v>678</v>
+        <v>1046</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>710</v>
+        <v>90</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>737</v>
+        <v>90</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>767</v>
+        <v>90</v>
       </c>
       <c r="AH41" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="AI41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL41" s="8" t="s">
+        <v>1191</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -7602,31 +9110,31 @@
         <v>90</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>113</v>
+        <v>828</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>154</v>
+        <v>843</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>208</v>
+        <v>865</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>234</v>
+        <v>876</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>264</v>
+        <v>888</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>90</v>
@@ -7638,34 +9146,34 @@
         <v>90</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>359</v>
+        <v>919</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>391</v>
+        <v>930</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>422</v>
+        <v>941</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>452</v>
+        <v>90</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>485</v>
+        <v>963</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>515</v>
+        <v>90</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>541</v>
+        <v>90</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>571</v>
+        <v>90</v>
       </c>
       <c r="W42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>613</v>
+        <v>90</v>
       </c>
       <c r="Y42" s="8" t="s">
         <v>90</v>
@@ -7683,24 +9191,32 @@
         <v>90</v>
       </c>
       <c r="AD42" s="8" t="s">
-        <v>679</v>
+        <v>90</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>711</v>
+        <v>1057</v>
       </c>
       <c r="AF42" s="8" t="s">
-        <v>738</v>
+        <v>1068</v>
       </c>
       <c r="AG42" s="8" t="s">
-        <v>768</v>
+        <v>90</v>
       </c>
       <c r="AH42" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="8"/>
+        <v>1091</v>
+      </c>
+      <c r="AI42" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AJ42" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AK42" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AL42" s="8" t="s">
+        <v>1192</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -7710,25 +9226,25 @@
         <v>90</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>114</v>
+        <v>829</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>155</v>
+        <v>844</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>180</v>
+        <v>855</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>209</v>
+        <v>866</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>235</v>
+        <v>877</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>90</v>
+        <v>889</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>90</v>
@@ -7746,34 +9262,34 @@
         <v>90</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>360</v>
+        <v>920</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>392</v>
+        <v>931</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>423</v>
+        <v>942</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>453</v>
+        <v>953</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>486</v>
+        <v>964</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>516</v>
+        <v>975</v>
       </c>
       <c r="U43" s="8" t="s">
-        <v>542</v>
+        <v>986</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>572</v>
+        <v>997</v>
       </c>
       <c r="W43" s="8" t="s">
         <v>90</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>614</v>
+        <v>1013</v>
       </c>
       <c r="Y43" s="8" t="s">
         <v>90</v>
@@ -7791,24 +9307,32 @@
         <v>90</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>90</v>
+        <v>1047</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>712</v>
+        <v>1058</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>739</v>
+        <v>1069</v>
       </c>
       <c r="AG43" s="8" t="s">
-        <v>90</v>
+        <v>1081</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="8"/>
+        <v>1092</v>
+      </c>
+      <c r="AI43" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AJ43" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AK43" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AL43" s="8" t="s">
+        <v>1193</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -7818,31 +9342,31 @@
         <v>90</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>115</v>
+        <v>830</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>156</v>
+        <v>845</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>181</v>
+        <v>856</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>210</v>
+        <v>867</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>236</v>
+        <v>878</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>265</v>
+        <v>890</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>90</v>
@@ -7854,34 +9378,34 @@
         <v>90</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>361</v>
+        <v>921</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>393</v>
+        <v>932</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>424</v>
+        <v>943</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>454</v>
+        <v>954</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>487</v>
+        <v>965</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>517</v>
+        <v>976</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>543</v>
+        <v>987</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>573</v>
+        <v>998</v>
       </c>
       <c r="W44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>615</v>
+        <v>1014</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>90</v>
@@ -7899,24 +9423,32 @@
         <v>90</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>680</v>
+        <v>1048</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>713</v>
+        <v>1059</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>740</v>
+        <v>1070</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>769</v>
+        <v>1082</v>
       </c>
       <c r="AH44" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="AI44" s="9"/>
-      <c r="AJ44" s="9"/>
-      <c r="AK44" s="9"/>
-      <c r="AL44" s="9"/>
+        <v>1093</v>
+      </c>
+      <c r="AI44" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AJ44" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AK44" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AL44" s="9" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -8021,10 +9553,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8278,10 +9818,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -8386,10 +9934,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -8494,10 +10050,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -8602,10 +10166,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -8710,10 +10282,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -8818,10 +10398,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -8926,10 +10514,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -9034,10 +10630,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -9142,10 +10746,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -9250,10 +10862,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -9358,10 +10978,18 @@
       <c r="AH12" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>1195</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -9466,10 +11094,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -9574,10 +11210,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -9682,10 +11326,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -9790,10 +11442,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -9898,10 +11558,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -10006,10 +11674,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -10114,10 +11790,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -10222,10 +11906,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -10330,10 +12022,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -10438,10 +12138,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -10546,10 +12254,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -10654,10 +12370,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -10762,10 +12486,18 @@
       <c r="AH25" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -10870,10 +12602,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -10978,10 +12718,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -11086,10 +12834,18 @@
       <c r="AH28" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>1197</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -11194,10 +12950,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -11302,10 +13066,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -11410,10 +13182,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -11518,10 +13298,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -11626,10 +13414,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -11734,10 +13530,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -11842,10 +13646,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -11950,10 +13762,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -12058,10 +13878,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -12166,10 +13994,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -12274,10 +14110,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -12382,10 +14226,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -12490,10 +14342,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -12598,10 +14458,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -12706,10 +14574,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -12814,10 +14690,18 @@
       <c r="AH44" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -12922,10 +14806,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13198,10 +15090,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -13306,10 +15206,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -13414,10 +15322,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -13522,10 +15438,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -13630,10 +15554,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -13738,10 +15670,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -13846,10 +15786,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -13954,10 +15902,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -14062,10 +16018,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -14170,10 +16134,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -14278,10 +16250,18 @@
       <c r="AH12" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -14386,10 +16366,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -14494,10 +16482,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -14602,10 +16598,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -14710,10 +16714,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -14818,10 +16830,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -14926,10 +16946,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -15034,10 +17062,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -15142,10 +17178,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -15250,10 +17294,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -15358,10 +17410,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -15466,10 +17526,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -15574,10 +17642,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -15682,10 +17758,18 @@
       <c r="AH25" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -15790,10 +17874,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -15898,10 +17990,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -16006,10 +18106,18 @@
       <c r="AH28" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>1201</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -16114,10 +18222,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -16222,10 +18338,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -16330,10 +18454,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -16438,10 +18570,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -16546,10 +18686,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -16654,10 +18802,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -16762,10 +18918,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -16870,10 +19034,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -16978,10 +19150,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -17086,10 +19266,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -17129,7 +19317,7 @@
         <v>90</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="N39" s="6" t="s">
         <v>90</v>
@@ -17177,7 +19365,7 @@
         <v>90</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="AD39" s="6" t="s">
         <v>95</v>
@@ -17194,10 +19382,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -17237,7 +19433,7 @@
         <v>90</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>331</v>
+        <v>90</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>90</v>
@@ -17285,7 +19481,7 @@
         <v>90</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>90</v>
+        <v>1037</v>
       </c>
       <c r="AD40" s="6" t="s">
         <v>95</v>
@@ -17302,10 +19498,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -17318,7 +19522,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>95</v>
@@ -17339,7 +19543,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>90</v>
@@ -17410,10 +19614,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -17426,7 +19638,7 @@
         <v>95</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>95</v>
@@ -17447,7 +19659,7 @@
         <v>90</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>90</v>
@@ -17518,10 +19730,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -17555,44 +19775,44 @@
         <v>90</v>
       </c>
       <c r="K43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W43" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="L43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="T43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="X43" s="5" t="s">
         <v>95</v>
       </c>
@@ -17626,10 +19846,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -17734,10 +19962,18 @@
       <c r="AH44" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -17842,10 +20078,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18118,10 +20362,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -18226,10 +20478,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -18334,10 +20594,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -18442,10 +20710,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -18550,10 +20826,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -18658,10 +20942,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -18766,10 +21058,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -18874,10 +21174,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -18982,10 +21290,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -19090,10 +21406,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -19198,10 +21522,18 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -19306,10 +21638,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -19414,10 +21754,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -19522,10 +21870,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -19630,10 +21986,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -19738,10 +22102,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -19846,10 +22218,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -19954,10 +22334,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -20062,10 +22450,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -20170,10 +22566,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -20278,10 +22682,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -20386,10 +22798,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -20494,10 +22914,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -20602,10 +23030,18 @@
       <c r="AH25" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>1203</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -20710,10 +23146,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -20818,10 +23262,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -20926,10 +23378,18 @@
       <c r="AH28" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -21034,10 +23494,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -21142,10 +23610,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -21250,10 +23726,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -21358,10 +23842,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -21466,10 +23958,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -21574,10 +24074,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -21682,10 +24190,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -21790,10 +24306,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -21898,10 +24422,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -22006,10 +24538,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -22114,10 +24654,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -22222,10 +24770,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -22330,10 +24886,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -22438,10 +25002,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -22546,10 +25118,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -22654,10 +25234,18 @@
       <c r="AH44" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -22762,10 +25350,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23038,10 +25634,18 @@
       <c r="AH2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -23146,10 +25750,18 @@
       <c r="AH3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -23254,10 +25866,18 @@
       <c r="AH4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -23362,10 +25982,18 @@
       <c r="AH5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -23470,10 +26098,18 @@
       <c r="AH6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -23578,10 +26214,18 @@
       <c r="AH7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -23686,10 +26330,18 @@
       <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -23794,10 +26446,18 @@
       <c r="AH9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -23902,10 +26562,18 @@
       <c r="AH10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -24010,10 +26678,18 @@
       <c r="AH11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -24118,10 +26794,18 @@
       <c r="AH12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -24226,10 +26910,18 @@
       <c r="AH13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -24334,10 +27026,18 @@
       <c r="AH14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -24442,10 +27142,18 @@
       <c r="AH15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -24550,10 +27258,18 @@
       <c r="AH16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -24658,10 +27374,18 @@
       <c r="AH17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -24766,10 +27490,18 @@
       <c r="AH18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -24874,10 +27606,18 @@
       <c r="AH19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -24982,10 +27722,18 @@
       <c r="AH20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -25090,10 +27838,18 @@
       <c r="AH21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -25198,10 +27954,18 @@
       <c r="AH22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -25306,10 +28070,18 @@
       <c r="AH23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -25414,10 +28186,18 @@
       <c r="AH24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -25522,10 +28302,18 @@
       <c r="AH25" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -25630,10 +28418,18 @@
       <c r="AH26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -25738,10 +28534,18 @@
       <c r="AH27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -25846,10 +28650,18 @@
       <c r="AH28" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -25954,10 +28766,18 @@
       <c r="AH29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -26062,10 +28882,18 @@
       <c r="AH30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -26170,10 +28998,18 @@
       <c r="AH31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -26278,10 +29114,18 @@
       <c r="AH32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -26386,10 +29230,18 @@
       <c r="AH33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -26494,10 +29346,18 @@
       <c r="AH34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -26602,10 +29462,18 @@
       <c r="AH35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -26710,10 +29578,18 @@
       <c r="AH36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -26818,10 +29694,18 @@
       <c r="AH37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -26926,10 +29810,18 @@
       <c r="AH38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -27034,10 +29926,18 @@
       <c r="AH39" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
+      <c r="AI39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL39" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -27142,10 +30042,18 @@
       <c r="AH40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
+      <c r="AI40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -27250,10 +30158,18 @@
       <c r="AH41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AI41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -27358,10 +30274,18 @@
       <c r="AH42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AI42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
@@ -27466,10 +30390,18 @@
       <c r="AH43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AI43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK43" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
@@ -27574,10 +30506,18 @@
       <c r="AH44" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="AI44" s="4"/>
-      <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4"/>
+      <c r="AI44" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AJ44" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AK44" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
@@ -27682,10 +30622,18 @@
       <c r="AH45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
+      <c r="AI45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27860,106 +30808,116 @@
         <v>83</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>100</v>
+        <v>819</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>127</v>
+        <v>831</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>143</v>
+        <v>835</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>167</v>
+        <v>846</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>195</v>
+        <v>857</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>222</v>
+        <v>868</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>251</v>
+        <v>879</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>284</v>
+        <v>891</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>295</v>
+        <v>895</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>308</v>
+        <v>899</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>322</v>
+        <v>903</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>340</v>
+        <v>907</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>350</v>
+        <v>911</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>378</v>
+        <v>922</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>409</v>
+        <v>933</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>439</v>
+        <v>944</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>471</v>
+        <v>955</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>502</v>
+        <v>966</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>530</v>
+        <v>977</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>558</v>
+        <v>988</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>588</v>
+        <v>999</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>601</v>
+        <v>1004</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>626</v>
+        <v>1015</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>634</v>
+        <v>1019</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>639</v>
+        <v>1024</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>650</v>
+        <v>1028</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>657</v>
+        <v>1032</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>666</v>
+        <v>1038</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>697</v>
+        <v>1049</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>727</v>
+        <v>1060</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>755</v>
+        <v>1071</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+        <v>1083</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -28044,7 +31002,7 @@
         <v>651</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>658</v>
+        <v>1033</v>
       </c>
       <c r="AC3" s="5" t="s">
         <v>667</v>
@@ -28061,336 +31019,376 @@
       <c r="AG3" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AH3" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>820</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>129</v>
+        <v>832</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>90</v>
+        <v>836</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>169</v>
+        <v>847</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>197</v>
+        <v>858</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>224</v>
+        <v>869</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>253</v>
+        <v>880</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>286</v>
+        <v>892</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>297</v>
+        <v>896</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>324</v>
+        <v>904</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>342</v>
+        <v>908</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>352</v>
+        <v>912</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>380</v>
+        <v>923</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>411</v>
+        <v>934</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>441</v>
+        <v>945</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>473</v>
+        <v>956</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>504</v>
+        <v>967</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>90</v>
+        <v>978</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>560</v>
+        <v>989</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>603</v>
+        <v>1005</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>628</v>
+        <v>1016</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>636</v>
+        <v>1020</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>641</v>
+        <v>1025</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>90</v>
+        <v>1029</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>659</v>
+        <v>1034</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>668</v>
+        <v>1039</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>699</v>
+        <v>1050</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>90</v>
+        <v>1061</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>757</v>
+        <v>1072</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+        <v>1084</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>821</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>833</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>837</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>170</v>
+        <v>848</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>198</v>
+        <v>859</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>225</v>
+        <v>870</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>90</v>
+        <v>881</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>287</v>
+        <v>893</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>298</v>
+        <v>897</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>311</v>
+        <v>901</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>325</v>
+        <v>905</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>343</v>
+        <v>909</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>353</v>
+        <v>913</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>381</v>
+        <v>924</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>412</v>
+        <v>935</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>442</v>
+        <v>946</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>474</v>
+        <v>957</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>505</v>
+        <v>968</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>90</v>
+        <v>979</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>561</v>
+        <v>990</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>591</v>
+        <v>1001</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>604</v>
+        <v>1006</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>629</v>
+        <v>1017</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>637</v>
+        <v>1021</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>642</v>
+        <v>1026</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>90</v>
+        <v>1030</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>660</v>
+        <v>1035</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>669</v>
+        <v>1040</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>700</v>
+        <v>1051</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>90</v>
+        <v>1062</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>90</v>
+        <v>1073</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>791</v>
-      </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+        <v>1085</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>822</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>131</v>
+        <v>834</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>838</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>171</v>
+        <v>849</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>199</v>
+        <v>860</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>226</v>
+        <v>871</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>254</v>
+        <v>882</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>288</v>
+        <v>894</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>299</v>
+        <v>898</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>312</v>
+        <v>902</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>326</v>
+        <v>906</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>344</v>
+        <v>910</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>354</v>
+        <v>914</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>382</v>
+        <v>925</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>413</v>
+        <v>936</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>443</v>
+        <v>947</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>475</v>
+        <v>958</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>506</v>
+        <v>969</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>532</v>
+        <v>980</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>562</v>
+        <v>991</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>592</v>
+        <v>1002</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>605</v>
+        <v>1007</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>630</v>
+        <v>1018</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>638</v>
+        <v>1022</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>643</v>
+        <v>1027</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>652</v>
+        <v>1031</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>661</v>
+        <v>1036</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>670</v>
+        <v>1041</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>701</v>
+        <v>1052</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>729</v>
+        <v>1063</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>758</v>
+        <v>1074</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+        <v>1086</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>823</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>132</v>
@@ -28408,7 +31406,7 @@
         <v>227</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>255</v>
+        <v>883</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>289</v>
@@ -28450,7 +31448,7 @@
         <v>563</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>593</v>
+        <v>1003</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>606</v>
@@ -28459,7 +31457,7 @@
         <v>631</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>89</v>
+        <v>1023</v>
       </c>
       <c r="Z7" s="6" t="s">
         <v>89</v>
@@ -28480,16 +31478,26 @@
         <v>730</v>
       </c>
       <c r="AF7" s="6" t="s">
-        <v>759</v>
+        <v>1075</v>
       </c>
       <c r="AG7" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
+      <c r="AH7" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -28591,11 +31599,21 @@
       <c r="AG8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
+      <c r="AH8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28865,11 +31883,21 @@
       <c r="AG2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AH2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -28971,11 +31999,21 @@
       <c r="AG3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
+      <c r="AH3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -29077,11 +32115,21 @@
       <c r="AG4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
+      <c r="AH4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -29183,11 +32231,21 @@
       <c r="AG5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
+      <c r="AH5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -29289,11 +32347,21 @@
       <c r="AG6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AH6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -29395,11 +32463,21 @@
       <c r="AG7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
+      <c r="AH7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -29501,11 +32579,21 @@
       <c r="AG8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
+      <c r="AH8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -29607,11 +32695,21 @@
       <c r="AG9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
+      <c r="AH9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -29713,11 +32811,21 @@
       <c r="AG10" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AH10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -29819,11 +32927,21 @@
       <c r="AG11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
+      <c r="AH11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -29925,11 +33043,21 @@
       <c r="AG12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
+      <c r="AH12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -30031,11 +33159,21 @@
       <c r="AG13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AH13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL13" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -30137,11 +33275,21 @@
       <c r="AG14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
+      <c r="AH14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -30243,11 +33391,21 @@
       <c r="AG15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AH15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL15" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -30349,11 +33507,21 @@
       <c r="AG16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AH16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -30455,11 +33623,21 @@
       <c r="AG17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
+      <c r="AH17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -30561,11 +33739,21 @@
       <c r="AG18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
+      <c r="AH18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -30667,11 +33855,21 @@
       <c r="AG19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
+      <c r="AH19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -30773,11 +33971,21 @@
       <c r="AG20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
+      <c r="AH20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -30879,11 +34087,21 @@
       <c r="AG21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AH21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -30985,11 +34203,21 @@
       <c r="AG22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AH22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL22" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -31091,11 +34319,21 @@
       <c r="AG23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
+      <c r="AH23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL23" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -31197,11 +34435,21 @@
       <c r="AG24" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
+      <c r="AH24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL24" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -31303,11 +34551,21 @@
       <c r="AG25" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
+      <c r="AH25" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AI25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK25" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AL25" s="5" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -31409,11 +34667,21 @@
       <c r="AG26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AH26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -31515,11 +34783,21 @@
       <c r="AG27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AH27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -31621,11 +34899,21 @@
       <c r="AG28" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
+      <c r="AH28" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -31727,11 +35015,21 @@
       <c r="AG29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
+      <c r="AH29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -31833,11 +35131,21 @@
       <c r="AG30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AH30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -31939,11 +35247,21 @@
       <c r="AG31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AH31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -32045,11 +35363,21 @@
       <c r="AG32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AH32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL32" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -32151,11 +35479,21 @@
       <c r="AG33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
+      <c r="AH33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -32257,11 +35595,21 @@
       <c r="AG34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
+      <c r="AH34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -32363,11 +35711,21 @@
       <c r="AG35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
+      <c r="AH35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -32469,11 +35827,21 @@
       <c r="AG36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
+      <c r="AH36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -32575,11 +35943,21 @@
       <c r="AG37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AH37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -32681,11 +36059,21 @@
       <c r="AG38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AH38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
@@ -32787,11 +36175,21 @@
       <c r="AG39" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
+      <c r="AH39" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AJ39" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AK39" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AL39" s="4" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -32893,11 +36291,21 @@
       <c r="AG40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
+      <c r="AH40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL40" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -32999,11 +36407,21 @@
       <c r="AG41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH41" s="4"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
+      <c r="AH41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL41" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
@@ -33105,11 +36523,21 @@
       <c r="AG42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
+      <c r="AH42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL42" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
